--- a/user.xlsx
+++ b/user.xlsx
@@ -1,43 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +45,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -79,44 +80,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +144,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +178,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +189,309 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[[1629.9999999999382, 2020.000000000011, 1739.9999999998945, 2040.0, 121.48759925705205, -1, -1], [1559.999999999889, 1490.0000000000018, 1659.99999999994, 1520.0000000000036, 153.4315258295924, -1, -1], [1549.9999999999836, 1970.00000000002, 1399.9999999999782, 1930.0000000000073, 139.1665733536887, -1, -1], [1359.999999999929, 1040.00000000002, 1249.999999999971, 1150.0000000000127, 53.26611209145191, -1, -1], [1239.9999999999236, 1689.9999999999982, 1089.9999999999181, 1700.000000000009, 160.3652733992967, -1, -1], [549.9999999998981, 1760.0000000000127, 589.9999999999472, 1810.0000000000018, 118.23068700026079, -1, -1], [2379.9999999999673, 1689.9999999999982, 2330.0000000000127, 1740.0000000000236, 20.445431622009647, -1, -1], [2270.000000000011, 1580.0000000000055, 2079.9999999999563, 1520.0000000000036, 63.48592643527684, -1, -1], [529.9999999999436, 1390.0000000000218, 559.9999999999454, 1510.0000000000273, 4.464422204264773, -1, -1], [1129.9999999999673, 1730.000000000011, 1729.999999999989, 1890.000000000029, 129.90922710509966, -1, -1], [1309.9999999999745, 2310.000000000009, 1289.9999999998781, 2400.0000000000127, 1.8409877108769956, -1, -1], [519.9999999998963, 1820.0000000000146, 549.9999999998981, 1760.0000000000127, 176.24677178443108, -1, -1], [479.9999999999891, 1160.0000000000255, 529.9999999999436, 1320.0000000000073, 137.29677083581595, -1, -1], [2189.9999999999127, 1790.0000000000127, 2319.9999999999654, 1750.0, 193.8081300588199, -1, -1], [2159.999999999911, 2200.0000000000164, 2270.000000000011, 2280.000000000009, 145.17052028930303, -1, -1], [1389.999999999929, 670.00000000003, 1339.9999999999745, 690.0000000000191, 105.52588287247964, -1, -1], [669.9999999999018, 880.0000000000027, 689.9999999999982, 930.0000000000282, 152.7401990262979, -1, -1], [2699.999999999931, 1650.00000000002, 2759.9999999999345, 1640.0000000000073, 187.83340378971732, -1, -1], [819.9999999999072, 1310.000000000031, 829.9999999999563, 1210.0000000000146, 110.57191525859302, -1, -1], [2039.9999999999072, 2070.0, 2090.0000000000036, 2090.0000000000255, 69.14008294175049, -1, -1], [179.99999999997817, 1570.000000000029, 229.9999999999327, 1410.000000000011, 135.3697079699949, -1, -1], [-19.99999999998181, 1070.0000000000218, 49.99999999992633, 960.0000000000291, 152.18954750836411, -1, -1], [1879.9999999999964, 1910.0000000000182, 1959.999999999951, 1890.000000000029, 190.44889105823876, -1, -1], [1769.9999999998963, 1090.000000000011, 1759.999999999991, 1100.0000000000227, 185.3013247571732, -1, -1], [889.9999999999582, 50.00000000001819, 769.9999999999527, 90.00000000003183, 83.23598777886923, -1, -1], [2150.0000000000055, 1650.00000000002, 2060.000000000002, 1500.0000000000146, 183.25396710105883, -1, -1], [2759.9999999999345, 1540.0000000000273, 2709.99999999998, 1560.0000000000164, 184.4377124939775, -1, -1], [909.9999999999109, 119.99999999999727, 1129.9999999999673, 380.0000000000309, 20.00005421922544, -1, -1], [2330.0000000000127, 1740.0000000000236, 2279.9999999999163, 1710.0000000000218, 125.8705809601298, -1, -1], [939.9999999999127, 1910.0000000000182, 799.9999999999545, 1689.9999999999982, 144.72780206791538, -1, -1], [1879.9999999999964, 2580.00000000002, 1789.9999999999927, 2610.00000000002, 59.27807855738691, -1, -1], [1189.999999999969, 740.0000000000091, 1269.9999999999254, 850.0000000000018, 148.62933208449957, -1, -1], [1409.9999999998836, 1790.0000000000127, 1679.9999999998927, 1710.0000000000218, 179.11507892829835, -1, -1], [2039.9999999999072, 2030.0000000000218, 1959.999999999951, 2000.0000000000218, 194.65045140861235, -1, -1], [2459.9999999999236, 1940.0000000000182, 2379.9999999999673, 1890.000000000029, 100.15994002884712, -1, -1], [1779.9999999999436, 2420.000000000002, 1819.9999999999927, 2500.000000000029, 193.4420547218725, -1, -1], [1849.9999999999945, 1160.0000000000255, 1699.999999999989, 1240.0000000000164, 101.54345010226322, -1, -1], [1679.9999999998927, 2110.0000000000146, 1739.9999999998945, 2060.0000000000236, 182.03701178775066, -1, -1], [1699.999999999989, 1290.0000000000055, 1729.999999999989, 1320.0000000000073, 37.96994582320528, -1, -1], [1989.9999999999527, 1890.000000000029, 2009.9999999999054, 2150.0000000000273, 56.83187333878963, -1, -1], [1140.0000000000146, 1240.0000000000164, 1209.9999999999236, 1200.0000000000036, 194.69028097760528, -1, -1], [2180.0000000000073, 1560.0000000000164, 1739.9999999998945, 1380.000000000009, 99.8724115583262, -1, -1], [1789.9999999999927, 1100.0000000000227, 1739.9999999998945, 1140.000000000001, 188.18269596291157, -1, -1], [1179.9999999999218, 1270.0000000000182, 1459.99999999998, 1290.0000000000055, 78.6707246139679, -1, -1], [1479.9999999999327, 1410.000000000011, 1419.9999999999309, 1340.0000000000327, 170.65759008307134, -1, -1], [2210.0000000000073, 2150.0000000000273, 2349.9999999999654, 2110.0000000000146, 96.04539460352058, -1, -1], [2139.999999999958, 1800.0000000000255, 2169.99999999996, 1780.0000000000018, 148.74613105863966, -1, -1], [2069.9999999999072, 1750.0, 2000.0, 1580.0000000000055, 80.85761877047119, -1, -1], [1809.9999999999454, 1510.0000000000273, 1669.9999999999873, 1450.0000000000236, 132.94870432169347, -1, -1], [1459.99999999998, 860.0000000000136, 1629.9999999999382, 910.0000000000036, 73.4247662854176, -1, -1], [2259.999999999962, 2060.0000000000236, 2090.0000000000036, 2160.0000000000036, 176.54640481329076, -1, -1], [1439.9999999998836, 1600.000000000029, 1479.9999999999327, 1470.0000000000127, 155.16752999199304, -1, -1], [1299.9999999999254, 1130.0000000000236, 1339.9999999999745, 1079.9999999999982, 147.64309283301685, -1, -1], [1059.9999999999163, 1530.0000000000146, 969.9999999999127, 1510.0000000000273, 17.29351794564966, -1, -1], [1589.999999999889, 2240.000000000031, 1729.999999999989, 2200.0000000000164, 132.75156096879616, -1, -1], [2079.9999999999563, 1230.0000000000036, 2169.99999999996, 1260.0000000000055, 21.586252418819974, -1, -1], [1230.0000000000182, 1200.0000000000036, 1269.9999999999254, 1160.0000000000255, 32.73965942999484, -1, -1], [1859.9999999999, 2009.9999999999982, 2039.9999999999072, 1990.000000000009, 167.99030809589487, -1, -1], [1819.9999999999927, 1240.0000000000164, 1729.999999999989, 1320.0000000000073, 74.10453332914935, -1, -1], [2090.0000000000036, 1740.0000000000236, 2120.0000000000036, 1750.0, 146.55316178437317, -1, -1], [1399.9999999999782, 850.0000000000018, 1339.9999999999745, 860.0000000000136, 93.86402822060478, -1, -1], [599.9999999999945, 1490.0000000000018, 559.9999999999454, 1369.9999999999982, 61.705885385546196, -1, -1], [2519.9999999999254, 1719.9999999999982, 2480.000000000018, 1730.000000000011, 169.66031489251213, -1, -1], [-19.99999999998181, 1079.9999999999982, 49.99999999992633, 1109.999999999999, 122.96214341101606, -1, -1], [1799.9999999998981, 1049.9999999999973, 1709.9999999998945, 990.00000000003, 115.63518105983685, -1, -1], [1449.9999999999309, 520.0000000000246, 1489.99999999998, 590.0000000000036, 129.43123306386053, -1, -1], [1629.9999999999382, 980.0000000000182, 1619.9999999998909, 930.0000000000282, 33.71885940766119, -1, -1], [1080.0000000000127, 1079.9999999999982, 939.9999999999127, 1010.0000000000191, 45.387469205374465, -1, -1], [1299.9999999999254, 1630.000000000031, 1279.9999999999727, 1700.000000000009, 2.4603169717239304, -1, -1], [1829.9999999998981, 1620.0000000000182, 1679.9999999998927, 1650.00000000002, 39.90327349248146, -1, -1], [1819.9999999999927, 2200.0000000000164, 1959.999999999951, 2210.000000000029, 184.01728698654438, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[[1189.999999999969, 1460.0, 1119.99999999992, 1440.0000000000127, 109.6676934244873, -1, -1], [1519.9999999999818, 2180.0000000000273, 1379.9999999998818, 2130.000000000002, 80.89097367789097, -1, -1], [1159.9999999999673, 2030.0000000000218, 1309.9999999999745, 1970.00000000002, 68.76517825196294, -1, -1], [149.99999999997726, 1540.0000000000273, 169.99999999993088, 1410.000000000011, 169.4921978977245, -1, -1], [2339.999999999918, 430.0000000000209, 2450.0000000000164, 820.0, 70.65483251084643, -1, -1], [2199.99999999996, 2090.0000000000255, 2049.9999999999545, 2070.0, 181.95100317788044, -1, -1], [969.9999999999127, 2070.0, 879.9999999999109, 2009.9999999999982, 131.8429627239649, -1, -1], [1339.9999999999745, 650.0000000000055, 1329.9999999999272, 700.0000000000309, 121.78896510171336, -1, -1], [1439.9999999998836, 1590.0000000000182, 1409.9999999998836, 1480.0000000000255, 145.880036064549, -1, -1], [1579.9999999999836, 2000.0000000000218, 1659.99999999994, 1890.000000000029, 76.73792657800797, -1, -1], [1839.9999999999472, 1150.0000000000127, 1889.9999999999018, 1240.0000000000164, 171.38982537461206, -1, -1], [1359.999999999929, 2270.000000000031, 1419.9999999999309, 1750.0, 190.92926068034703, -1, -1], [1799.9999999998981, 1010.0000000000191, 1819.9999999999927, 980.0000000000182, 187.69184014276178, -1, -1], [799.9999999999545, 1689.9999999999982, 879.9999999999109, 1770.0000000000236, 102.49998690059765, -1, -1], [1279.9999999999727, 1390.0000000000218, 1319.99999999988, 1399.9999999999982, 25.849885521349727, -1, -1], [1829.9999999998981, 2120.0000000000255, 1749.9999999999436, 2060.0000000000236, 155.4794364591805, -1, -1], [1959.999999999951, 1740.0000000000236, 1929.999999999949, 1860.0000000000273, 41.09705154015224, -1, -1], [1799.9999999998981, 2170.0000000000164, 1749.9999999999436, 2190.0000000000055, 189.94385310429826, -1, -1], [1429.9999999999782, 1030.0000000000082, 1399.9999999999782, 1090.000000000011, 96.22036348284804, -1, -1], [10.0000000000191, 400.00000000002, 89.99999999997453, 370.0000000000191, 72.94720943272013, -1, -1], [1839.9999999999472, 1880.0000000000164, 1909.9999999999964, 1860.0000000000273, 110.88023811554821, -1, -1], [1329.9999999999272, 750.0000000000209, 1260.00000000002, 880.0000000000027, 188.20270226109096, -1, -1], [1859.9999999999, 1090.000000000011, 1779.9999999999436, 1040.00000000002, 82.68000853795574, -1, -1], [1399.9999999999782, 670.00000000003, 1419.9999999999309, 740.0000000000091, 162.6703014325946, -1, -1], [2839.999999999889, 1090.000000000011, 2069.9999999999072, 1260.0000000000055, 82.88490376782107, -1, -1], [1879.9999999999964, 1170.0000000000018, 1929.999999999949, 1210.0000000000146, 0.3169499911051865, -1, -1], [319.99999999993634, 510.0000000000118, 509.9999999999909, 310.00000000001637, 108.02191141767716, -1, -1], [1829.9999999998981, 2150.0000000000273, 1959.999999999951, 2210.000000000029, 157.28887708850573, -1, -1], [1889.9999999999018, 2570.0000000000073, 1919.9999999999018, 2510.0000000000055, 66.22749039254604, -1, -1], [2229.999999999962, 1260.0000000000055, 1969.9999999999982, 1410.000000000011, 119.9710369526967, -1, -1], [339.99999999988904, 1560.0000000000164, 259.9999999999345, 1410.000000000011, 160.9138969028071, -1, -1], [1189.999999999969, 1480.0000000000255, 1299.9999999999254, 1399.9999999999982, 127.07421806039103, -1, -1], [1849.9999999999945, 2160.0000000000036, 1969.9999999999982, 2130.000000000002, 110.15125302145015, -1, -1], [1789.9999999999927, 1520.0000000000036, 1729.999999999989, 1550.0000000000036, 36.15679869206079, -1, -1], [900.0000000000055, 1610.0000000000073, 759.9999999999054, 1550.0000000000036, 18.32028150325855, -1, -1], [1709.9999999998945, 1140.000000000001, 1629.9999999999382, 1190.0000000000264, 110.20582735105984, -1, -1], [1319.99999999988, 1450.0000000000236, 1389.999999999929, 1340.0000000000327, 170.25480243032777, -1, -1], [659.9999999999964, 1710.0000000000218, 729.9999999999054, 1640.0000000000073, 186.19000502719587, -1, -1], [-19.99999999998181, 1040.00000000002, 69.99999999987995, 930.0000000000282, 6.491826238848009, -1, -1], [1329.9999999999272, 2310.000000000009, 1209.9999999999236, 2230.000000000018, 188.71405075954425, -1, -1], [1589.999999999889, 1490.0000000000018, 1639.9999999999854, 1369.9999999999982, 14.0906946111234, -1, -1], [439.9999999999418, 680.0000000000073, 319.99999999993634, 510.0000000000118, 173.6156180749694, -1, -1], [2289.9999999999636, 1600.000000000029, 2259.999999999962, 1640.0000000000073, 90.59975745463366, -1, -1], [2069.9999999999072, 1700.000000000009, 1849.9999999999945, 1640.0000000000073, 150.82905703125414, -1, -1], [2489.9999999999236, 1760.0000000000127, 2189.9999999999127, 1740.0000000000236, 56.23933561080578, -1, -1], [750.0, 1830.0000000000273, 879.9999999999109, 1640.0000000000073, 53.72834668977353, -1, -1], [509.9999999999909, 1340.0000000000327, 599.9999999999945, 1320.0000000000073, 159.45754293322872, -1, -1], [1189.999999999969, 920.0000000000164, 1159.9999999999673, 880.0000000000027, 36.922036624584884, -1, -1], [189.99999999988358, 439.9999999999982, 289.9999999999345, 490.00000000002365, 58.05686424600389, -1, -1], [2360.0000000000146, 1910.0000000000182, 2339.999999999918, 1850.0000000000164, 33.49406146947371, -1, -1], [1189.999999999969, 1460.0, 1179.9999999999218, 1540.0000000000273, 51.0432236304587, -1, -1], [1469.9999999998854, 1120.0000000000118, 1449.9999999999309, 1070.0000000000218, 190.39153034708642, -1, -1], [679.9999999999491, 930.0000000000282, 840.0000000000036, 789.9999999999991, 131.33130114214782, -1, -1], [900.0000000000055, 1719.9999999999982, 870.0000000000036, 1659.9999999999964, 129.64056091247485, -1, -1], [1889.9999999999018, 1190.0000000000264, 1879.9999999999964, 1250.000000000029, 58.898555419894485, -1, -1], [1329.9999999999272, 700.0000000000309, 1279.9999999999727, 740.0000000000091, 140.52511054575706, -1, -1], [999.9999999999145, 680.0000000000073, 840.0000000000036, 650.0000000000055, 99.29873119856568, -1, -1], [2009.9999999999054, 1550.0000000000036, 2099.999999999909, 1630.000000000031, 22.838129138401996, -1, -1], [1739.9999999998945, 2050.000000000011, 1799.9999999998981, 1790.0000000000127, 62.40098534011409, -1, -1], [1129.9999999999673, 1830.0000000000273, 1249.999999999971, 1790.0000000000127, 68.6684942557196, -1, -1], [1669.9999999999873, 2270.000000000031, 1959.999999999951, 2280.000000000009, 159.24060223704473, -1, -1], [1759.999999999991, 1109.999999999999, 1659.99999999994, 1030.0000000000082, 51.68416665309918, -1, -1], [1269.9999999999254, 1750.0, 1339.9999999999745, 1650.00000000002, 50.69162979694977, -1, -1], [1619.9999999998909, 2180.0000000000273, 1729.999999999989, 2200.0000000000164, 146.0304461570322, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[[1170.0000000000164, 1680.0000000000218, 1129.9999999999673, 1640.0000000000073, 195.34765513105836, -1, -1], [2279.9999999999163, 2150.0000000000273, 2219.9999999999127, 2140.0000000000146, 193.11270357019995, -1, -1], [2019.9999999999527, 1760.0000000000127, 1589.999999999889, 1790.0000000000127, 86.33110942995496, -1, -1], [2309.9999999999163, 2290.00000000002, 2279.9999999999163, 2160.0000000000036, 195.1106861543925, -1, -1], [2330.0000000000127, 2170.0000000000164, 2360.0000000000146, 2260.00000000002, 45.07480266372041, -1, -1], [1609.9999999999854, 1650.00000000002, 1779.9999999999436, 1510.0000000000273, 79.46307382950447, -1, -1], [2069.9999999999072, 2020.000000000011, 1649.9999999998927, 1940.0000000000182, 7.065209327392963, -1, -1], [1029.9999999999163, 420.0000000000091, 939.9999999999127, 450.00000000001, 191.97866344485817, -1, -1], [1659.99999999994, 1030.0000000000082, 1799.9999999998981, 1070.0000000000218, 89.13370326847676, -1, -1], [1269.9999999999254, 2340.000000000011, 1329.9999999999272, 1880.0000000000164, 101.2618626328942, -1, -1], [1699.999999999989, 1580.0000000000055, 1739.9999999998945, 1510.0000000000273, 85.33300540551865, -1, -1], [479.9999999999891, 1170.0000000000018, 449.9999999999891, 1300.0000000000182, 166.44898089855872, -1, -1], [2330.0000000000127, 1940.0000000000182, 2249.9999999999145, 1870.0000000000036, 195.39523121058122, -1, -1], [1409.9999999998836, 1780.0000000000018, 1319.99999999988, 1820.0000000000146, 126.15436732442804, -1, -1], [-660.0000000000537, 149.99999999999818, -800.0000000000109, 20.00000000001728, 139.0101783224933, -1, -1], [1489.99999999998, 1640.0000000000073, 1529.9999999998872, 1610.0000000000073, 90.16900542854633, -1, -1], [1449.9999999999309, 1240.0000000000164, 1519.9999999999818, 1290.0000000000055, 104.77908797339562, -1, -1], [379.99999999993815, 550.0000000000255, 429.9999999998927, 270.00000000000273, 6.140055350807305, -1, -1], [2159.999999999911, 2180.0000000000273, 2210.0000000000073, 2220.0000000000055, 134.9805155036538, -1, -1], [1230.0000000000182, 510.0000000000118, 1289.9999999998781, 550.0000000000255, 160.67710268683106, -1, -1], [2259.999999999962, 2060.0000000000236, 2219.9999999999127, 2050.000000000011, 131.96477835021594, -1, -1], [960.0000000000073, 1760.0000000000127, 1119.99999999992, 1740.0000000000236, 85.2598757427709, -1, -1], [870.0000000000036, 700.0000000000309, 840.0000000000036, 650.0000000000055, 147.49025001914197, -1, -1], [2030.0000000000018, 2110.0000000000146, 1979.9999999999054, 2120.0000000000255, 25.136664461945447, -1, -1], [1829.9999999998981, 980.0000000000182, 1459.99999999998, 820.0, 42.42633860637879, -1, -1], [2019.9999999999527, 1580.0000000000055, 2049.9999999999545, 1630.000000000031, 9.488034704903692, -1, -1], [1209.9999999999236, 1650.00000000002, 1119.99999999992, 1630.000000000031, 14.145375577381847, -1, -1], [719.9999999999982, 1330.00000000002, 699.9999999999036, 1430.0, 15.289231107180745, -1, -1], [1549.9999999999836, 1100.0000000000227, 1569.9999999999363, 1060.000000000009, 183.43526264919106, -1, -1], [359.99999999998545, 1979.9999999999964, 279.9999999998872, 1960.0000000000073, 59.57596114850359, -1, -1], [1149.99999999992, 1280.000000000029, 1200.0000000000164, 1290.0000000000055, 31.64147796656527, -1, -1], [2330.0000000000127, 1860.0000000000273, 2249.9999999999145, 1840.0000000000036, 112.98814453535988, -1, -1], [1189.999999999969, 1460.0, 1009.9999999999618, 1380.000000000009, 26.078225684881584, -1, -1], [1369.9999999999764, 1290.0000000000055, 1439.9999999998836, 1310.000000000031, 112.14346420573872, -1, -1], [759.9999999999054, 1920.000000000031, 669.9999999999018, 1719.9999999999982, 170.1053321926542, -1, -1], [1659.99999999994, 1960.0000000000073, 1719.9999999999418, 1880.0000000000164, 118.11679425748305, -1, -1], [1209.9999999999236, 1880.0000000000164, 1189.999999999969, 1810.0000000000018, 43.5180678400414, -1, -1], [1549.9999999999836, 2060.0000000000236, 1439.9999999998836, 1979.9999999999964, 180.16259904247607, -1, -1], [1959.999999999951, 1580.0000000000055, 1919.9999999999018, 1740.0000000000236, 92.1704980306582, -1, -1], [2009.9999999999054, 1510.0000000000273, 1859.9999999999, 1600.000000000029, 165.58263133135597, -1, -1], [519.9999999998963, 1250.000000000029, 409.99999999994, 1300.0000000000182, 173.97728558447244, -1, -1], [939.9999999999127, 1420.0000000000236, 1029.9999999999163, 1330.00000000002, 156.0034538865434, -1, -1], [769.9999999999527, 90.00000000003183, 889.9999999999582, 50.00000000001819, 124.59256277810596, -1, -1], [1020.0000000000109, 610.0000000000282, 1029.9999999999163, 870.0000000000255, 7.484675016952802, -1, -1], [2459.9999999999236, 1010.0000000000191, 2510.00000000002, 1090.000000000011, 40.08149109323453, -1, -1], [2079.9999999999563, 2009.9999999999982, 2019.9999999999527, 2050.000000000011, 19.805072554590918, -1, -1], [1479.9999999999327, 960.0000000000291, 1509.9999999999345, 1010.0000000000191, 114.67654060446174, -1, -1], [479.9999999999891, 1170.0000000000018, 389.99999999998545, 1260.0000000000055, 179.31314920328575, -1, -1], [2390.0000000000146, 1730.000000000011, 2330.0000000000127, 1740.0000000000236, 118.28186242896115, -1, -1], [1269.9999999999254, 2240.000000000031, 1319.99999999988, 2299.9999999999964, 98.47015008989604, -1, -1], [2019.9999999999527, 1790.0000000000127, 1889.9999999999018, 1900.0000000000055, 187.59078035646309, -1, -1], [1909.9999999999964, 1890.000000000029, 1969.9999999999982, 1860.0000000000273, 78.01210775386194, -1, -1], [1239.9999999999236, 1520.0000000000036, 1209.9999999999236, 1470.0000000000127, 100.82147344917047, -1, -1], [289.9999999999345, 490.00000000002365, 319.99999999993634, 450.00000000001, 3.4400393446470057, -1, -1], [1469.9999999998854, 1210.0000000000146, 1539.9999999999345, 1160.0000000000255, 122.42567222061977, -1, -1], [750.0, 1030.0000000000082, 709.9999999999509, 1049.9999999999973, 80.46494260382393, -1, -1], [1629.9999999999382, 1240.0000000000164, 1539.9999999999345, 1270.0000000000182, 56.270343092222475, -1, -1], [2519.9999999999254, 1800.0000000000255, 2510.00000000002, 1870.0000000000036, 31.393058897335834, -1, -1], [1779.9999999999436, 729.9999999999973, 1739.9999999998945, 810.0000000000236, 171.50734860858427, -1, -1], [89.99999999997453, 370.0000000000191, 109.99999999992815, 260.0000000000264, 162.2278123901035, -1, -1], [2229.999999999962, 1330.00000000002, 2240.000000000009, 1420.0000000000236, 112.66810712620672, -1, -1], [1069.9999999999654, 1630.000000000031, 1110.0000000000146, 1640.0000000000073, 27.028628198944983, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[[1739.9999999998945, 2050.000000000011, 1689.9999999999418, 2110.0000000000146, 85.8480829194632, -1, -1], [1429.9999999999782, 1350.000000000009, 1309.9999999999745, 1399.9999999999982, 53.30709021457294, -1, -1], [2219.9999999999127, 1060.000000000009, 2180.0000000000073, 1109.999999999999, 19.28102051869194, -1, -1], [1569.9999999999363, 2190.0000000000055, 1739.9999999998945, 2200.0000000000164, 75.84674199251454, -1, -1], [1639.9999999999854, 2350.000000000022, 1789.9999999999927, 2310.000000000009, 109.52530405499013, -1, -1], [1919.9999999999018, 2510.0000000000055, 1849.9999999999945, 2360.0, 182.88892788051544, -1, -1], [1339.9999999999745, 1480.0000000000255, 1439.9999999998836, 1280.000000000029, 167.5385500298592, -1, -1], [1559.999999999889, 1399.9999999999982, 1439.9999999998836, 1330.00000000002, 106.86600876524852, -1, -1], [1269.9999999999254, 850.0000000000018, 1230.0000000000182, 1140.000000000001, 153.59023658261927, -1, -1], [1599.9999999999382, 1710.0000000000218, 1260.00000000002, 1910.0000000000182, 106.50408302939003, -1, -1], [1119.99999999992, 1510.0000000000273, 1209.9999999999236, 1460.0, 13.064553924598066, -1, -1], [629.9999999999964, 1380.000000000009, 689.9999999999982, 1280.000000000029, 8.080090708554133, -1, -1], [2339.999999999918, 2280.000000000009, 2390.0000000000146, 2070.0, 26.603402450224966, -1, -1], [1849.9999999999945, 1689.9999999999982, 1909.9999999999964, 1750.0, 33.310510085504916, -1, -1], [2030.0000000000018, 1580.0000000000055, 2189.9999999999127, 1630.000000000031, 107.64174791122703, -1, -1], [179.99999999997817, 1650.00000000002, 289.9999999999345, 1590.0000000000182, 53.60198879110243, -1, -1], [1749.9999999999436, 1040.00000000002, 1809.9999999999454, 1140.000000000001, 66.44669562609317, -1, -1], [1399.9999999999782, 439.9999999999982, 1429.9999999999782, 340.0000000000173, 101.17769664694696, -1, -1], [1709.9999999998945, 2140.0000000000146, 1749.9999999999436, 2180.0000000000273, 51.05824525372385, -1, -1], [889.9999999999582, 600.0000000000155, 719.9999999999982, 789.9999999999991, 67.77031621379439, -1, -1], [1050.000000000011, 970.0000000000064, 1399.9999999999782, 850.0000000000018, 22.782582478546033, -1, -1], [1829.9999999998981, 1020.0000000000318, 1719.9999999999418, 960.0000000000291, 47.037902276843504, -1, -1], [1379.9999999998818, 190.00000000001182, 1260.00000000002, 310.00000000001637, 188.79897982475538, -1, -1], [1939.9999999999982, 2160.0000000000036, 1969.9999999999982, 2130.000000000002, 155.90796910868207, -1, -1], [2309.9999999999163, 1910.0000000000182, 2249.9999999999145, 1870.0000000000036, 143.0217279304044, -1, -1], [2279.9999999999163, 1710.0000000000218, 2109.9999999999563, 1870.0000000000036, 97.7585645546704, -1, -1], [1989.9999999999527, 1890.000000000029, 2109.9999999999563, 1979.9999999999964, 115.99141143436799, -1, -1], [1759.999999999991, 740.0000000000091, 1739.9999999998945, 810.0000000000236, 154.05063197653737, -1, -1], [1369.9999999999764, 830.0000000000127, 1269.9999999999254, 870.0000000000255, 64.14519107213287, -1, -1], [1249.999999999971, 1680.0000000000218, 1449.9999999999309, 1780.0000000000018, 81.31978522716972, -1, -1], [859.9999999999563, 1740.0000000000236, 799.9999999999545, 1680.0000000000218, 76.04604790533833, -1, -1], [2240.000000000009, 1420.0000000000236, 2099.999999999909, 1410.000000000011, 198.24667541402047, -1, -1], [429.9999999998927, 270.00000000000273, 519.9999999998963, 310.00000000001637, 29.465676588574, -1, -1], [1879.9999999999964, 1530.0000000000146, 1839.9999999999472, 1460.0, 25.00345012679317, -1, -1], [1009.9999999999618, 210.0000000000009, 930.0000000000073, 680.0000000000073, 22.937872432449492, -1, -1], [1769.9999999998963, 1960.0000000000073, 1759.999999999991, 2000.0000000000218, 117.48158452198444, -1, -1], [1879.9999999999964, 1230.0000000000036, 1859.9999999999, 1270.0000000000182, 185.23308840101902, -1, -1], [2169.99999999996, 2290.00000000002, 2129.999999999911, 2329.999999999998, 15.33032740769016, -1, -1], [599.9999999999945, 750.0000000000209, 629.9999999999964, 729.9999999999973, 110.05495074944804, -1, -1], [2139.999999999958, 1570.000000000029, 1849.9999999999945, 1659.9999999999964, 113.19330346844086, -1, -1], [1879.9999999999964, 1170.0000000000018, 1919.9999999999018, 1200.0000000000036, 190.4492456715161, -1, -1], [1029.9999999999163, 1719.9999999999982, 1129.9999999999673, 1730.000000000011, 72.97836078817863, -1, -1], [1619.9999999998909, 2030.0000000000218, 1739.9999999998945, 2060.0000000000236, 59.110521621177824, -1, -1], [1099.9999999999654, 1060.000000000009, 1230.0000000000182, 1010.0000000000191, 106.85883749286414, -1, -1], [889.9999999999582, -149.99999999997726, 789.9999999999072, 30.000000000029104, 22.86322036053128, -1, -1], [1749.9999999999436, 810.0000000000236, 1739.9999999998945, 789.9999999999991, 179.35188304958157, -1, -1], [2300.000000000011, 1780.0000000000018, 2279.9999999999163, 1810.0000000000018, 21.546137015543376, -1, -1], [1589.999999999889, 1640.0000000000073, 1729.999999999989, 1600.000000000029, 9.150346856963854, -1, -1], [1389.999999999929, 1109.999999999999, 1469.9999999998854, 1120.0000000000118, 59.147587437006436, -1, -1], [1559.999999999889, 2280.000000000009, 1319.99999999988, 2299.9999999999964, 122.73538510562723, -1, -1], [2019.9999999999527, 1790.0000000000127, 1959.999999999951, 1820.0000000000146, 2.9096306736515753, -1, -1], [1719.9999999999418, 1580.0000000000055, 1759.999999999991, 1550.0000000000036, 82.70688670143855, -1, -1], [1719.9999999999418, 1900.0000000000055, 1769.9999999998963, 2030.0000000000218, 165.22399766007075, -1, -1], [1409.9999999998836, 1790.0000000000127, 1289.9999999998781, 1770.0000000000236, 157.97564244273832, -1, -1], [2270.000000000011, 2110.0000000000146, 2219.9999999999127, 2140.0000000000146, 37.584418415476904, -1, -1], [1899.999999999949, 1100.0000000000227, 1779.9999999999436, 1090.000000000011, 157.1024268689133, -1, -1], [2399.99999999992, 1700.000000000009, 2259.999999999962, 1689.9999999999982, 117.3585748985612, -1, -1], [1140.0000000000146, 1130.0000000000236, 939.9999999999127, 1160.0000000000255, 32.403966956672335, -1, -1], [1779.9999999999436, 2050.000000000011, 1959.999999999951, 1800.0000000000255, 90.18172348645841, -1, -1], [1469.9999999998854, 1100.0000000000227, 1659.99999999994, 1180.0000000000136, 136.1780080816452, -1, -1], [479.9999999999891, 1200.0000000000036, 389.99999999998545, 1210.0000000000146, 31.788952267179504, -1, -1], [729.9999999999054, 110.00000000002092, 679.9999999999491, 70.00000000000728, 169.0037803394111, -1, -1], [529.9999999999436, 1540.0000000000273, 469.9999999999418, 1420.0000000000236, 87.02056692654551, -1, -1], [2189.9999999999127, 1280.000000000029, 2249.9999999999145, 1260.0000000000055, 192.9387589965422, -1, -1], [1219.999999999971, 2030.0000000000218, 1369.9999999999764, 2050.000000000011, 161.2974732671142, -1, -1], [1579.9999999999836, 1350.000000000009, 1409.9999999998836, 1280.000000000029, 108.58508930984544, -1, -1], [1549.9999999999836, 1530.0000000000146, 1719.9999999999418, 1540.0000000000273, 163.67002173367675, -1, -1], [1309.9999999999745, 1560.0000000000164, 1260.00000000002, 1640.0000000000073, 110.04181691022237, -1, -1], [1689.9999999999418, 2020.000000000011, 1769.9999999998963, 1970.00000000002, 142.32218932659936, -1, -1], [1429.9999999999782, 2050.000000000011, 2030.0000000000018, 2030.0000000000218, 62.89194837231806, -1, -1], [930.0000000000073, 890.0000000000146, 889.9999999999582, 970.0000000000064, 41.5229240835461, -1, -1], [1219.999999999971, 1180.0000000000136, 1230.0000000000182, 1109.999999999999, 63.483268081575936, -1, -1], [2219.9999999999127, 2110.0000000000146, 2139.999999999958, 2020.000000000011, 5.452509240070191, -1, -1], [1379.9999999998818, 980.0000000000182, 1309.9999999999745, 1109.999999999999, 157.37199035671892, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[[1969.9999999999982, 2280.000000000009, 1849.9999999999945, 2270.000000000031, 185.12073501281418, -1, -1], [669.9999999999018, 1719.9999999999982, 629.9999999999964, 1670.000000000009, 145.29674589122928, -1, -1], [2150.0000000000055, 270.00000000000273, 2120.0000000000036, 250.00000000001455, 64.05025489605147, -1, -1], [2039.9999999999072, 1990.000000000009, 1989.9999999999527, 1979.9999999999964, 78.25381057453282, -1, -1], [2079.9999999999563, 1510.0000000000273, 2189.9999999999127, 1520.0000000000036, 79.71103200758216, -1, -1], [1419.9999999999309, 740.0000000000091, 1379.9999999998818, 729.9999999999973, 12.838396300959598, -1, -1], [1200.0000000000164, 1120.0000000000118, 1230.0000000000182, 1020.0000000000318, 63.469907596429096, -1, -1], [2030.0000000000018, 1810.0000000000018, 1969.9999999999982, 1820.0000000000146, 120.28938080340102, -1, -1], [1799.9999999998981, 2470.0000000000273, 1849.9999999999945, 2510.0000000000055, 91.17159711027489, -1, -1], [2049.9999999999545, 1630.000000000031, 1959.999999999951, 1640.0000000000073, 50.012564979781594, -1, -1], [1409.9999999998836, 1440.0000000000127, 1459.99999999998, 1399.9999999999982, 157.02712329895328, -1, -1], [819.9999999999072, -159.9999999999891, 589.9999999999472, -289.9999999999709, 155.58392551534305, -1, -1], [2180.0000000000073, 2009.9999999999982, 1979.9999999999054, 2030.0000000000218, 178.24187955694376, -1, -1], [589.9999999999472, 780.0000000000227, 619.9999999999472, 810.0000000000236, 173.52276845006617, -1, -1], [1879.9999999999964, 1109.999999999999, 1929.999999999949, 1100.0000000000227, 93.7840203372157, -1, -1], [1119.99999999992, 1160.0000000000255, 1059.9999999999163, 1190.0000000000264, 71.16539665920433, -1, -1], [1249.999999999971, 1600.000000000029, 1429.9999999999782, 1700.000000000009, 36.644548984769365, -1, -1], [1569.9999999999363, 1960.0000000000073, 1409.9999999998836, 1930.0000000000073, 41.56738118428158, -1, -1], [1479.9999999999327, 2130.000000000002, 1269.9999999999254, 1940.0000000000182, 39.84317965266286, -1, -1], [759.9999999999054, 1550.0000000000036, 1069.9999999999654, 1380.000000000009, 72.09271651710385, -1, -1], [1489.99999999998, 1430.0, 1459.99999999998, 1440.0000000000127, 163.99540943024564, -1, -1], [1719.9999999999418, 1440.0000000000127, 1679.9999999998927, 1390.0000000000218, 17.88296250012027, -1, -1], [1369.9999999999764, 610.0000000000282, 1379.9999999998818, 880.0000000000027, 150.65733708128667, -1, -1], [799.9999999999545, 1689.9999999999982, 729.9999999999054, 1719.9999999999982, 18.097687739149528, -1, -1], [1429.9999999999782, 1790.0000000000127, 1289.9999999998781, 1780.0000000000018, 114.87124658147405, -1, -1], [2210.0000000000073, 2230.000000000018, 2240.000000000009, 2310.000000000009, 67.77675739040154, -1, -1], [2300.000000000011, 2280.000000000009, 2319.9999999999654, 2350.000000000022, 45.485246763346396, -1, -1], [1299.9999999999254, 350.00000000003, 1260.00000000002, 320.0000000000291, 193.3196176689629, -1, -1], [1389.999999999929, 1030.0000000000082, 1359.999999999929, 980.0000000000182, 8.21045089847059, -1, -1], [1969.9999999999982, 2130.000000000002, 1989.9999999999527, 2160.0000000000036, 37.36257004251351, -1, -1], [1119.99999999992, 1740.0000000000236, 1029.9999999999163, 1760.0000000000127, 158.54636109938437, -1, -1], [2219.9999999999127, 1600.000000000029, 2139.999999999958, 1640.0000000000073, 115.80132677182591, -1, -1], [900.0000000000055, 1610.0000000000073, 969.9999999999127, 1580.0000000000055, 184.27029297174414, -1, -1], [930.0000000000073, 710.0000000000082, 759.9999999999054, 770.00000000001, 49.16962584008784, -1, -1], [1110.0000000000146, 1390.0000000000218, 990.0000000000091, 1450.0000000000236, 20.18952450785847, -1, -1], [1479.9999999999327, 1470.0000000000127, 1629.9999999999382, 1480.0000000000255, 122.27834996429894, -1, -1], [1589.999999999889, 1320.0000000000073, 1569.9999999999363, 1250.000000000029, 161.51353954667232, -1, -1], [669.9999999999018, 1719.9999999999982, 709.9999999999509, 1630.000000000031, 18.408784635511033, -1, -1], [1749.9999999999436, 1940.0000000000182, 1709.9999999998945, 2020.000000000011, 44.03108510430756, -1, -1], [1179.9999999999218, 980.0000000000182, 1260.00000000002, 960.0000000000291, 161.65267265403165, -1, -1], [859.9999999999563, 1470.0000000000127, 659.9999999999964, 1650.00000000002, 80.35473089266945, -1, -1], [1669.9999999999873, 1060.000000000009, 1559.999999999889, 1170.0000000000018, 53.61276351094952, -1, -1], [2069.9999999999072, 1700.000000000009, 1979.9999999999054, 1680.0000000000218, 173.51121018963508, -1, -1], [1679.9999999998927, 1390.0000000000218, 1719.9999999999418, 1360.00000000002, 145.83385299910574, -1, -1], [759.9999999999054, 1930.0000000000073, 789.9999999999072, 1689.9999999999982, 4.302815549644956, -1, -1], [1489.99999999998, 1260.0000000000055, 1559.999999999889, 1270.0000000000182, 1.983392671974804, -1, -1], [1309.9999999999745, 1260.0000000000055, 1419.9999999999309, 1280.000000000029, 150.14574794796818, -1, -1], [1829.9999999998981, 2150.0000000000273, 1819.9999999999927, 1990.000000000009, 71.83827533313787, -1, -1], [1170.0000000000164, 2350.000000000022, 1219.999999999971, 2390.0, 93.7668798307314, -1, -1], [1739.9999999998945, 2050.000000000011, 1779.9999999999436, 2110.0000000000146, 171.82301752892076, -1, -1], [1119.99999999992, 510.0000000000118, 949.99999999996, 620.0000000000045, 20.18689140890475, -1, -1], [1119.99999999992, 2580.00000000002, 1080.0000000000127, 2560.000000000031, 155.5491816922776, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[[1429.9999999999782, 1480.0000000000255, 1439.9999999998836, 1340.0000000000327, 65.61871033475843, -1, -1], [1819.9999999999927, 2110.0000000000146, 1749.9999999999436, 2060.0000000000236, 101.85400687043062, -1, -1], [1359.999999999929, 1790.0000000000127, 1279.9999999999727, 1770.0000000000236, 133.04948981589393, -1, -1], [1219.999999999971, 310.00000000001637, 1249.999999999971, 320.0000000000291, 35.913285279585395, -1, -1], [1799.9999999998981, 1770.0000000000236, 1879.9999999999964, 1920.000000000031, 29.91258797779064, -1, -1], [1479.9999999999327, 1590.0000000000182, 1709.9999999998945, 1650.00000000002, 28.307635816261367, -1, -1], [900.0000000000055, 420.0000000000091, 879.9999999999109, 610.0000000000282, 173.10912954775094, -1, -1], [1959.999999999951, 1640.0000000000073, 1709.9999999998945, 1950.000000000031, 61.124575297352266, -1, -1], [659.9999999999964, 1719.9999999999982, 709.9999999999509, 1630.000000000031, 141.8647982394073, -1, -1], [1239.9999999999236, 670.00000000003, 1200.0000000000164, 700.0000000000309, 166.93783241414565, -1, -1], [2060.000000000002, 1719.9999999999982, 2019.9999999999527, 1550.0000000000036, 120.37853046281559, -1, -1], [669.9999999999018, 1710.0000000000218, 659.9999999999964, 1659.9999999999964, 25.259964009760004, -1, -1], [1069.9999999999654, 1390.0000000000218, 1050.000000000011, 1440.0000000000127, 41.34811035049057, -1, -1], [2319.9999999999654, 2320.000000000022, 2289.9999999999636, 2140.0000000000146, 109.09859226715812, -1, -1], [1309.9999999999745, 1290.0000000000055, 1529.9999999998872, 1320.0000000000073, 144.5257097955941, -1, -1], [1699.999999999989, 1600.000000000029, 1799.9999999998981, 1480.0000000000255, 155.9486900509427, -1, -1], [1119.99999999992, 1350.000000000009, 1029.9999999999163, 1310.000000000031, 164.20596823556463, -1, -1], [569.9999999999927, 1310.000000000031, 709.9999999999509, 1320.0000000000073, 124.70551550962965, -1, -1], [459.9999999998945, 1270.0000000000182, 419.99999999998727, 1320.0000000000073, 134.43966494076514, -1, -1], [1519.9999999999818, 900.0000000000273, 1209.9999999999236, 1190.0000000000264, 110.59030419695155, -1, -1], [2060.000000000002, 1630.000000000031, 2030.0000000000018, 1600.000000000029, 188.6949222478045, -1, -1], [649.9999999999491, 700.0000000000309, 599.9999999999945, 759.9999999999982, 197.38706751107452, -1, -1], [870.0000000000036, 2210.000000000029, 859.9999999999563, 2450.0000000000036, 41.08683046423622, -1, -1], [1679.9999999998927, 960.0000000000291, 1809.9999999999454, 980.0000000000182, 59.785275805947165, -1, -1], [499.9999999999436, 1190.0000000000264, 409.99999999994, 1210.0000000000146, 107.49846273347279, -1, -1], [1110.0000000000146, 950.0000000000173, 1119.99999999992, 1040.00000000002, 9.711759857571778, -1, -1], [1729.999999999989, 1120.0000000000118, 1779.9999999999436, 1090.000000000011, 172.41979787912777, -1, -1], [2259.999999999962, 2210.000000000029, 2199.99999999996, 2180.0000000000273, 49.45937730757355, -1, -1], [1269.9999999999254, 900.0000000000273, 1260.00000000002, 880.0000000000027, 155.55530647101133, -1, -1], [119.99999999997635, 1590.0000000000182, 99.99999999988086, 1410.000000000011, 136.41516560820622, -1, -1], [1059.9999999999163, 1180.0000000000136, 1119.99999999992, 1140.000000000001, 89.33899821080658, -1, -1], [659.9999999999964, 1150.0000000000127, 750.0, 1120.0000000000118, 86.0342823703139, -1, -1], [1409.9999999998836, 1930.0000000000073, 1449.9999999999309, 1990.000000000009, 50.04396370258577, -1, -1], [990.0000000000091, 2530.000000000029, 879.9999999999109, 2480.0000000000036, 87.87976183189848, -1, -1], [1529.9999999998872, 1540.0000000000273, 1409.9999999998836, 1450.0000000000236, 107.61198170976292, -1, -1], [1799.9999999998981, 2310.000000000009, 1749.9999999999436, 2340.000000000011, 2.173305147454796, -1, -1], [1189.999999999969, 1090.000000000011, 1239.9999999999236, 1010.0000000000191, 167.25820055405666, -1, -1], [960.0000000000073, 660.0000000000182, 949.99999999996, 780.0000000000227, 34.30352100427312, -1, -1], [1739.9999999998945, 2370.000000000011, 1529.9999999998872, 2360.0, 97.15662155212237, -1, -1], [2060.000000000002, 2000.0000000000218, 2000.0, 2070.0, 158.61341453558032, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[[1769.9999999998963, 1020.0000000000318, 1749.9999999999436, 1090.000000000011, 186.52788760763983, -1, -1], [2049.9999999999545, 1750.0, 1809.9999999999454, 1620.0000000000182, 195.2624001660997, -1, -1], [1709.9999999998945, 970.0000000000064, 1719.9999999999418, 1020.0000000000318, 3.7821949456954274, -1, -1], [1110.0000000000146, 960.0000000000291, 1299.9999999999254, 700.0000000000309, 138.3406838103286, -1, -1], [1189.999999999969, 1810.0000000000018, 1279.9999999999727, 1700.000000000009, 116.01411422831431, -1, -1], [699.9999999999036, 1830.0000000000273, 659.9999999999964, 1680.0000000000218, 118.70926637221726, -1, -1], [1679.9999999998927, 1750.0, 1559.999999999889, 1659.9999999999964, 27.69915947185897, -1, -1], [1499.9999999998872, 1020.0000000000318, 1449.9999999999309, 1079.9999999999982, 196.64341334839816, -1, -1], [1979.9999999999054, 1900.0000000000055, 2069.9999999999072, 1870.0000000000036, 55.38286626010731, -1, -1], [870.0000000000036, 1550.0000000000036, 1050.000000000011, 1640.0000000000073, 112.814388276759, -1, -1], [2210.0000000000073, 2050.000000000011, 2039.9999999999072, 2070.0, 34.43484397596854, -1, -1], [1170.0000000000164, 1420.0000000000236, 1189.999999999969, 1460.0, 17.84944569100386, -1, -1], [19.99999999992542, 439.9999999999982, 89.99999999997453, 380.0000000000309, 97.19934017580326, -1, -1], [1399.9999999999782, 720.00000000002, 1230.0000000000182, 650.0000000000055, 35.51562209233901, -1, -1], [889.9999999999582, 1600.000000000029, 900.0000000000055, 1560.0000000000164, 63.44832703605236, -1, -1], [1809.9999999999454, 1620.0000000000182, 1779.9999999999436, 1659.9999999999964, 178.60706694251235, -1, -1], [919.99999999996, 1630.000000000031, 849.999999999909, 1640.0000000000073, 184.08710723864576, -1, -1], [2060.000000000002, 2000.0000000000218, 2099.999999999909, 1960.0000000000073, 186.0215763546722, -1, -1], [1769.9999999998963, 1900.0000000000055, 1949.9999999999036, 2030.0000000000218, 127.82216926130943, -1, -1], [1399.9999999999782, 2350.000000000022, 1319.99999999988, 2310.000000000009, 45.14611547943155, -1, -1], [1089.9999999999181, 670.00000000003, 979.9999999999618, 680.0000000000073, 62.596976004648575, -1, -1], [509.9999999999909, 2490.0000000000164, 519.9999999998963, 2570.0000000000073, 137.3898721915884, -1, -1], [1459.99999999998, 1070.0000000000218, 1399.9999999999782, 1190.0000000000264, 191.30794588485668, -1, -1], [1959.999999999951, 2290.00000000002, 1929.999999999949, 2420.000000000002, 142.56922217048128, -1, -1], [2139.999999999958, 2280.000000000009, 2069.9999999999072, 2350.000000000022, 67.39029967845593, -1, -1], [1449.9999999999309, 789.9999999999991, 1509.9999999999345, 1030.0000000000082, 122.25734726628585, -1, -1], [1489.99999999998, 1500.0000000000146, 1469.9999999998854, 1300.0000000000182, 145.6441445912519, -1, -1], [1629.9999999999382, 1710.0000000000218, 1669.9999999999873, 1560.0000000000164, 130.68154346231424, -1, -1], [1249.999999999971, 950.0000000000173, 960.0000000000073, 789.9999999999991, 194.47075373890277, -1, -1], [599.9999999999945, 1320.0000000000073, 559.9999999999454, 1360.00000000002, 43.89383651047547, -1, -1], [2289.9999999999636, 1860.0000000000273, 2249.9999999999145, 1870.0000000000036, 184.3207017653456, -1, -1], [3469.9999999999127, 1130.0000000000236, 3700.0000000000164, 1410.000000000011, 152.6388608093436, -1, -1], [2079.9999999999563, 1750.0, 1969.9999999999982, 1680.0000000000218, 129.05768584821234, -1, -1], [119.99999999997635, 1979.9999999999964, 129.99999999988177, 2030.0000000000218, 73.73802387635071, -1, -1], [1699.999999999989, 2180.0000000000273, 1839.9999999999472, 2350.000000000022, 102.32636297647335, -1, -1], [1679.9999999998927, 1689.9999999999982, 1609.9999999999854, 1719.9999999999982, 158.4960116192841, -1, -1], [1979.9999999999054, 1790.0000000000127, 1929.999999999949, 1730.000000000011, 40.7688458439738, -1, -1], [1009.9999999999618, 1760.0000000000127, 1119.99999999992, 1659.9999999999964, 59.74359168493295, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[[1799.9999999998981, 1770.0000000000236, 1809.9999999999454, 1860.0000000000273, 59.913240148113836, -1, -1], [1969.9999999999982, 1820.0000000000146, 1919.9999999999018, 1860.0000000000273, 110.46356763186205, -1, -1], [2929.9999999998927, 1800.0000000000255, 2979.999999999989, 1790.0000000000127, 33.03574279141821, -1, -1], [2339.999999999918, 1360.00000000002, 2270.000000000011, 1250.000000000029, 140.2551930195363, -1, -1], [1110.0000000000146, 210.0000000000009, 999.9999999999145, -49.99999999999727, 92.95567213681014, -1, -1], [739.9999999999527, 119.99999999999727, 529.9999999999436, 240.00000000000182, 16.99464150708487, -1, -1], [1319.99999999988, 560.0000000000018, 1309.9999999999745, 530.0000000000009, 24.6487794765895, -1, -1], [2229.999999999962, 1950.000000000031, 2150.0000000000055, 1930.0000000000073, 121.2210341693145, -1, -1], [2109.9999999999563, 1710.0000000000218, 1969.9999999999982, 1970.00000000002, 102.79024924521549, -1, -1], [1759.999999999991, 2020.000000000011, 1819.9999999999927, 2110.0000000000146, 75.43954130452259, -1, -1], [1239.9999999999236, 680.0000000000073, 1179.9999999999218, 660.0000000000182, 31.155844406180687, -1, -1], [1789.9999999999927, 2310.000000000009, 1929.999999999949, 2420.000000000002, 85.35057636740606, -1, -1], [1699.999999999989, 1600.000000000029, 1479.9999999999327, 1670.000000000009, 188.3386590622624, -1, -1], [1649.9999999998927, 1960.0000000000073, 1719.9999999999418, 1900.0000000000055, 143.9195346202703, -1, -1], [2090.0000000000036, 1399.9999999999982, 1989.9999999999527, 1360.00000000002, 156.45372279306235, -1, -1], [2289.9999999999636, 1770.0000000000236, 2330.0000000000127, 1740.0000000000236, 99.00516671186156, -1, -1], [1119.99999999992, 950.0000000000173, 1050.000000000011, 910.0000000000036, 78.72144984774776, -1, -1], [1209.9999999999236, 640.0000000000291, 1239.9999999999236, 670.00000000003, 127.39458433982954, -1, -1], [2379.9999999999673, 1890.000000000029, 2249.9999999999145, 1750.0, 76.79533290126292, -1, -1], [1389.999999999929, 2410.0000000000255, 1379.9999999998818, 2470.0000000000273, 169.09299964427672, -1, -1], [1149.99999999992, 780.0000000000227, 979.9999999999618, 710.0000000000082, 108.84457786365769, -1, -1], [1179.9999999999218, 670.00000000003, 1230.0000000000182, 620.0000000000045, 198.86221146689158, -1, -1], [2259.999999999962, 1850.0000000000164, 2249.9999999999145, 1930.0000000000073, 104.83479348007, -1, -1], [1849.9999999999945, 1820.0000000000146, 1919.9999999999018, 1740.0000000000236, 18.080357921039656, -1, -1], [2510.00000000002, 1580.0000000000055, 2539.999999999878, 1570.000000000029, 51.03678498931006, -1, -1], [1719.9999999999418, 1450.0000000000236, 1689.9999999999418, 1520.0000000000036, 20.209287505635977, -1, -1], [1149.99999999992, 940.0000000000045, 1200.0000000000164, 930.0000000000282, 147.3815022600634, -1, -1], [1979.9999999999054, 2160.0000000000036, 2259.999999999962, 2280.000000000009, 16.743987738249942, -1, -1], [2019.9999999999527, 430.0000000000209, 1859.9999999999, 360.00000000000637, 194.9641766237112, -1, -1], [1529.9999999998872, 1960.0000000000073, 1479.9999999999327, 1870.0000000000036, 193.8457083340842, -1, -1], [2049.9999999999545, 2030.0000000000218, 2069.9999999999072, 2080.0000000000127, 123.38052964498229, -1, -1], [2249.9999999999145, 2009.9999999999982, 2079.9999999999563, 2080.0000000000127, 193.36023130970798, -1, -1], [1569.9999999999363, 1630.000000000031, 1489.99999999998, 1650.00000000002, 137.32584074200355, -1, -1], [2019.9999999999527, 1580.0000000000055, 1959.999999999951, 1650.00000000002, 16.401656635193106, -1, -1], [1399.9999999999782, 1300.0000000000182, 1589.999999999889, 1310.000000000031, 170.19407886908618, -1, -1], [1519.9999999999818, 1700.000000000009, 1429.9999999999782, 1740.0000000000236, 48.19805915833639, -1, -1], [1859.9999999999, 1079.9999999999982, 1639.9999999999854, 980.0000000000182, 170.20016518585876, -1, -1], [750.0, 1830.0000000000273, 1009.9999999999618, 1880.0000000000164, 187.99942106412578, -1, -1], [1059.9999999999163, 1120.0000000000118, 1129.9999999999673, 1060.000000000009, 180.6851855410957, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[[1669.9999999999873, 1090.000000000011, 1689.9999999999418, 1190.0000000000264, 79.44799537175031, -1, -1], [1569.9999999999363, 2030.0000000000218, 1559.999999999889, 2060.0000000000236, 182.016833611529, -1, -1], [699.9999999999036, 2180.0000000000273, 769.9999999999527, 2200.0000000000164, 87.62578983058044, -1, -1], [789.9999999999072, 520.0000000000246, 859.9999999999563, 630.0000000000164, 124.4805096222233, -1, -1], [1559.999999999889, 1079.9999999999982, 1489.99999999998, 1049.9999999999973, 97.59330445442211, -1, -1], [1899.999999999949, 1490.0000000000018, 1959.999999999951, 1510.0000000000273, 42.40302610276152, -1, -1], [669.9999999999018, 1710.0000000000218, 659.9999999999964, 1620.0000000000182, 86.25210017067056, -1, -1], [1729.999999999989, 1120.0000000000118, 1799.9999999998981, 1160.0000000000255, 106.81090862784399, -1, -1], [1200.0000000000164, 1210.0000000000146, 1219.999999999971, 1260.0000000000055, 181.85920732928815, -1, -1], [1669.9999999999873, 1570.000000000029, 1449.9999999999309, 1520.0000000000036, 132.10194154899645, -1, -1], [689.9999999999982, 1340.0000000000327, 750.0, 1369.9999999999982, 55.53448684247786, -1, -1], [1579.9999999999836, 2160.0000000000036, 1379.9999999998818, 2070.0, 75.76990090247513, -1, -1], [1179.9999999999218, 960.0000000000291, 1239.9999999999236, 1010.0000000000191, 111.87482476831816, -1, -1], [1839.9999999999472, 610.0000000000282, 1779.9999999999436, 550.0000000000255, 191.960825308917, -1, -1], [1439.9999999998836, 1070.0000000000218, 1319.99999999988, 1290.0000000000055, 105.67263132150929, -1, -1], [1489.99999999998, 1490.0000000000018, 1509.9999999999345, 1510.0000000000273, 115.81652465616862, -1, -1], [1429.9999999999782, 1320.0000000000073, 1449.9999999999309, 1360.00000000002, 6.1616787724593, -1, -1], [1110.0000000000146, 1840.0000000000036, 1129.9999999999673, 1910.0000000000182, 194.61829603556922, -1, -1], [1399.9999999999782, 729.9999999999973, 1419.9999999999309, 780.0000000000227, 48.44783818026237, -1, -1], [1349.99999999988, 2140.0000000000146, 1369.9999999999764, 2180.0000000000273, 52.079357514688084, -1, -1], [1349.99999999988, 1240.0000000000164, 1309.9999999999745, 1270.0000000000182, 34.57045001504064, -1, -1], [1809.9999999999454, 2310.000000000009, 1689.9999999999418, 2400.0000000000127, 29.68208870640312, -1, -1], [1749.9999999999436, 1180.0000000000136, 1799.9999999998981, 1170.0000000000018, 40.08944969359889, -1, -1], [1080.0000000000127, 1450.0000000000236, 979.9999999999618, 1500.0000000000146, 62.22713080903601, -1, -1], [1669.9999999999873, 1369.9999999999982, 1689.9999999999418, 1290.0000000000055, 151.48393251133297, -1, -1], [1559.999999999889, 1670.000000000009, 1649.9999999998927, 1710.0000000000218, 166.47098613310925, -1, -1], [259.9999999999345, 1689.9999999999982, 559.9999999999454, 1520.0000000000036, 89.27930413349078, -1, -1], [2030.0000000000018, 2050.000000000011, 1979.9999999999054, 2080.0000000000127, 172.24822015859874, -1, -1], [1869.9999999999472, 1280.000000000029, 1799.9999999998981, 1310.000000000031, 171.0178464257957, -1, -1], [1419.9999999999309, 740.0000000000091, 1409.9999999998836, 780.0000000000227, 33.59591297116429, -1, -1], [1589.999999999889, 1450.0000000000236, 1469.9999999998854, 1470.0000000000127, 71.39108552159261, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[[1749.9999999999436, 1090.000000000011, 1669.9999999999873, 1030.0000000000082, 83.99330803110851, -1, -1], [29.999999999972715, 1010.0000000000191, 49.99999999992633, 950.0000000000173, 24.360002233188418, -1, -1], [1539.9999999999345, 1320.0000000000073, 1449.9999999999309, 1350.000000000009, 41.78904528997036, -1, -1], [1489.99999999998, 900.0000000000273, 1419.9999999999309, 1270.0000000000182, 175.78598019965943, -1, -1], [990.0000000000091, 710.0000000000082, 999.9999999999145, 640.0000000000291, 40.9643475473634, -1, -1], [239.99999999998, 1200.0000000000036, 389.99999999998545, 1220.0000000000273, 162.11232261082412, -1, -1], [1339.9999999999745, 1240.0000000000164, 1389.999999999929, 1270.0000000000182, 180.80356092385813, -1, -1], [1409.9999999998836, 940.0000000000045, 1379.9999999998818, 920.0000000000164, 4.830128130423317, -1, -1], [1059.9999999999163, 1160.0000000000255, 949.99999999996, 1190.0000000000264, 113.86171541700547, -1, -1], [1679.9999999998927, 1100.0000000000227, 1719.9999999999418, 1020.0000000000318, 2.643198587428164, -1, -1], [1769.9999999998963, 2900.00000000002, 1739.9999999998945, 2969.999999999998, 59.28252185127931, -1, -1], [1539.9999999999345, 1440.0000000000127, 1469.9999999998854, 1500.0000000000146, 134.78278631130704, -1, -1], [559.9999999999454, 1010.0000000000191, 589.9999999999472, 900.0000000000273, 144.86315842497314, -1, -1], [1969.9999999999982, 1820.0000000000146, 1959.999999999951, 1810.0000000000018, 129.87685372917952, -1, -1], [819.9999999999072, 1310.000000000031, 859.9999999999563, 1140.000000000001, 15.036714822607443, -1, -1], [919.99999999996, 1030.0000000000082, 960.0000000000073, 1049.9999999999973, 74.74545325723034, -1, -1], [1269.9999999999254, 1490.0000000000018, 1289.9999999998781, 1540.0000000000273, 161.09577910788573, -1, -1], [119.99999999997635, 1960.0000000000073, 39.99999999987813, 1700.000000000009, 87.43383661364388, -1, -1], [1050.000000000011, 1380.000000000009, 1129.9999999999673, 1369.9999999999982, 135.45258247378283, -1, -1], [1739.9999999998945, 2040.0, 1769.9999999998963, 1990.000000000009, 151.7220400696903, -1, -1], [1260.00000000002, 930.0000000000282, 1179.9999999999218, 960.0000000000291, 64.7375673068236, -1, -1], [1509.9999999999345, 1270.0000000000182, 1429.9999999999782, 1340.0000000000327, 24.780156377426277, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[[2049.9999999999545, 2030.0000000000218, 2069.9999999999072, 2080.0000000000127, 143.59352953665277, -1, -1], [1899.999999999949, 1109.999999999999, 1939.9999999999982, 1180.0000000000136, 70.04255101799843, -1, -1], [960.0000000000073, 1030.0000000000082, 930.0000000000073, 990.00000000003, 107.85906970411946, -1, -1], [1099.9999999999654, 1150.0000000000127, 1069.9999999999654, 1170.0000000000018, 67.87302908761397, -1, -1], [1719.9999999999418, 2140.0000000000146, 1749.9999999999436, 2180.0000000000273, 146.2267260006262, -1, -1], [1009.9999999999618, 500.0, 1039.9999999999636, 540.0000000000136, 114.28300811692942, -1, -1], [1799.9999999998981, 2050.000000000011, 1789.9999999999927, 1910.0000000000182, 22.619074058038336, -1, -1], [2109.9999999999563, 2100.000000000002, 2210.0000000000073, 2140.0000000000146, 183.56247153514354, -1, -1], [1649.9999999998927, 2040.0, 1679.9999999998927, 1990.000000000009, 76.47713006125994, -1, -1], [1149.99999999992, 780.0000000000227, 1119.99999999992, 850.0000000000018, 111.37771308999605, -1, -1], [1789.9999999999927, 1140.000000000001, 1339.9999999999745, 1200.0000000000036, 198.96616828087156, -1, -1], [1409.9999999998836, 1810.0000000000018, 1309.9999999999745, 1820.0000000000146, 127.10659146035341, -1, -1], [819.9999999999072, 1220.0000000000273, 849.999999999909, 1320.0000000000073, 144.4576216960891, -1, -1], [2369.99999999992, 840.0000000000246, 2300.000000000011, 920.0000000000164, 147.71297995659893, -1, -1], [1389.999999999929, 1140.000000000001, 1299.9999999999254, 1130.0000000000236, 145.67610846602946, -1, -1], [539.9999999999927, 1650.00000000002, 579.9999999998981, 1910.0000000000182, 39.77585432979187, -1, -1], [1669.9999999999873, 1060.000000000009, 1689.9999999999418, 1020.0000000000318, 184.66170796987558, -1, -1], [49.99999999992633, 950.0000000000173, 29.999999999972715, 1010.0000000000191, 120.16647731452208, -1, -1], [1959.999999999951, 2020.000000000011, 2090.0000000000036, 1900.0000000000055, 103.38249416495164, -1, -1], [649.9999999999491, 90.00000000003183, 729.9999999999054, 100.00000000000819, 187.4953146943906, -1, -1], [1179.9999999999218, 2810.0000000000164, 1219.999999999971, 2840.000000000018, 142.42581425248338, -1, -1], [2039.9999999999072, 2050.000000000011, 2069.9999999999072, 2090.0000000000255, 197.51717642744865, -1, -1], [1809.9999999999454, 2060.0000000000236, 1749.9999999999436, 1920.000000000031, 140.5783804808748, -1, -1], [1179.9999999999218, 1520.0000000000036, 1189.999999999969, 1460.0, 89.87762871389641, -1, -1], [1649.9999999998927, 2220.0000000000055, 1749.9999999999436, 2190.0000000000055, 133.76808394634153, -1, -1], [1839.9999999999472, 2080.0000000000127, 1469.9999999998854, 1790.0000000000127, 39.47222435388271, -1, -1], [1089.9999999999181, 1049.9999999999973, 1110.0000000000146, 960.0000000000291, 105.23813963460809, -1, -1], [239.99999999998, 1399.9999999999982, 209.99999999998, 1369.9999999999982, 135.70963500315344, -1, -1], [1989.9999999999527, 2080.0000000000127, 1979.9999999999054, 2120.0000000000255, 115.86923960725883, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[[1759.999999999991, 1890.000000000029, 1809.9999999999454, 1900.0000000000055, 194.0625286180557, -1, -1], [2199.99999999996, 1630.000000000031, 2139.999999999958, 1640.0000000000073, 67.20204034633235, -1, -1], [2259.999999999962, 1890.000000000029, 2180.0000000000073, 1870.0000000000036, 124.32496634785535, -1, -1], [1589.999999999889, 2000.0000000000218, 1539.9999999999345, 1920.000000000031, 194.89724596415576, -1, -1], [1140.0000000000146, 2920.000000000009, 1099.9999999999654, 2900.00000000002, 139.9007497696715, -1, -1], [2039.9999999999072, 1170.0000000000018, 2139.999999999958, 1230.0000000000036, 193.49900148626188, -1, -1], [1399.9999999999782, 1330.00000000002, 1359.999999999929, 1220.0000000000273, 13.54914530024236, -1, -1], [1729.999999999989, 1079.9999999999982, 1699.999999999989, 1100.0000000000227, 197.52669445539763, -1, -1], [1349.99999999988, 1240.0000000000164, 1309.9999999999745, 1290.0000000000055, 49.52627515845804, -1, -1], [1170.0000000000164, 540.0000000000136, 1080.0000000000127, 580.0000000000264, 193.4008757006309, -1, -1], [1029.9999999999163, 2020.000000000011, 1009.9999999999618, 1990.000000000009, 58.17720089804435, -1, -1], [1959.999999999951, 1170.0000000000018, 1969.9999999999982, 1130.0000000000236, 4.155263911186102, -1, -1], [1629.9999999999382, 980.0000000000182, 1709.9999999998945, 1030.0000000000082, 144.25686691591446, -1, -1], [1359.999999999929, 1290.0000000000055, 1479.9999999999327, 1280.000000000029, 31.216999342638996, -1, -1], [729.9999999999054, 110.00000000002092, 709.9999999999509, 140.00000000002183, 155.77145507502252, -1, -1], [1050.000000000011, 710.0000000000082, 1089.9999999999181, 750.0000000000209, 79.4635054207946, -1, -1], [1140.0000000000146, 1700.000000000009, 1309.9999999999745, 1820.0000000000146, 54.051740238469925, -1, -1]]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/user.xlsx
+++ b/user.xlsx
@@ -1,43 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lianxin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F78672A-05C3-4A78-ACB0-ACC1226CD3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="5460" yWindow="5260" windowWidth="10800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,27 +53,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,145 +360,3642 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>0</v>
+      </c>
+      <c r="S1">
+        <v>0</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>3</v>
+      </c>
+      <c r="Z1">
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1">
+        <v>0</v>
+      </c>
+      <c r="AC1">
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>2</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>1</v>
+      </c>
+      <c r="AI1">
+        <v>2</v>
+      </c>
+      <c r="AJ1">
+        <v>4</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>2</v>
+      </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
+      <c r="AR1">
+        <v>2</v>
+      </c>
+      <c r="AS1">
+        <v>2</v>
+      </c>
+      <c r="AT1">
+        <v>2</v>
+      </c>
+      <c r="AU1">
+        <v>2</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>1</v>
+      </c>
+      <c r="AZ1">
+        <v>1</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>2</v>
+      </c>
+      <c r="BC1">
+        <v>4</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>4</v>
+      </c>
+      <c r="BF1">
+        <v>6</v>
+      </c>
+      <c r="BG1">
+        <v>2</v>
+      </c>
+      <c r="BH1">
+        <v>1</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>1</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>1</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>2</v>
+      </c>
+      <c r="BO1">
+        <v>5</v>
+      </c>
+      <c r="BP1">
+        <v>2</v>
+      </c>
+      <c r="BQ1">
+        <v>1</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>1</v>
+      </c>
+      <c r="BX1">
+        <v>2</v>
+      </c>
+      <c r="BY1">
+        <v>1</v>
+      </c>
+      <c r="BZ1">
+        <v>2</v>
+      </c>
+      <c r="CA1">
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <v>0</v>
+      </c>
+      <c r="CC1">
+        <v>0</v>
+      </c>
+      <c r="CD1">
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <v>1</v>
+      </c>
+      <c r="CI1">
+        <v>1</v>
+      </c>
+      <c r="CJ1">
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <v>0</v>
+      </c>
+      <c r="CQ1">
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <v>0</v>
+      </c>
+      <c r="CV1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[[1629.9999999999382, 2020.000000000011, 1739.9999999998945, 2040.0, 121.48759925705205, -1, -1], [1559.999999999889, 1490.0000000000018, 1659.99999999994, 1520.0000000000036, 153.4315258295924, -1, -1], [1549.9999999999836, 1970.00000000002, 1399.9999999999782, 1930.0000000000073, 139.1665733536887, -1, -1], [1359.999999999929, 1040.00000000002, 1249.999999999971, 1150.0000000000127, 53.26611209145191, -1, -1], [1239.9999999999236, 1689.9999999999982, 1089.9999999999181, 1700.000000000009, 160.3652733992967, -1, -1], [549.9999999998981, 1760.0000000000127, 589.9999999999472, 1810.0000000000018, 118.23068700026079, -1, -1], [2379.9999999999673, 1689.9999999999982, 2330.0000000000127, 1740.0000000000236, 20.445431622009647, -1, -1], [2270.000000000011, 1580.0000000000055, 2079.9999999999563, 1520.0000000000036, 63.48592643527684, -1, -1], [529.9999999999436, 1390.0000000000218, 559.9999999999454, 1510.0000000000273, 4.464422204264773, -1, -1], [1129.9999999999673, 1730.000000000011, 1729.999999999989, 1890.000000000029, 129.90922710509966, -1, -1], [1309.9999999999745, 2310.000000000009, 1289.9999999998781, 2400.0000000000127, 1.8409877108769956, -1, -1], [519.9999999998963, 1820.0000000000146, 549.9999999998981, 1760.0000000000127, 176.24677178443108, -1, -1], [479.9999999999891, 1160.0000000000255, 529.9999999999436, 1320.0000000000073, 137.29677083581595, -1, -1], [2189.9999999999127, 1790.0000000000127, 2319.9999999999654, 1750.0, 193.8081300588199, -1, -1], [2159.999999999911, 2200.0000000000164, 2270.000000000011, 2280.000000000009, 145.17052028930303, -1, -1], [1389.999999999929, 670.00000000003, 1339.9999999999745, 690.0000000000191, 105.52588287247964, -1, -1], [669.9999999999018, 880.0000000000027, 689.9999999999982, 930.0000000000282, 152.7401990262979, -1, -1], [2699.999999999931, 1650.00000000002, 2759.9999999999345, 1640.0000000000073, 187.83340378971732, -1, -1], [819.9999999999072, 1310.000000000031, 829.9999999999563, 1210.0000000000146, 110.57191525859302, -1, -1], [2039.9999999999072, 2070.0, 2090.0000000000036, 2090.0000000000255, 69.14008294175049, -1, -1], [179.99999999997817, 1570.000000000029, 229.9999999999327, 1410.000000000011, 135.3697079699949, -1, -1], [-19.99999999998181, 1070.0000000000218, 49.99999999992633, 960.0000000000291, 152.18954750836411, -1, -1], [1879.9999999999964, 1910.0000000000182, 1959.999999999951, 1890.000000000029, 190.44889105823876, -1, -1], [1769.9999999998963, 1090.000000000011, 1759.999999999991, 1100.0000000000227, 185.3013247571732, -1, -1], [889.9999999999582, 50.00000000001819, 769.9999999999527, 90.00000000003183, 83.23598777886923, -1, -1], [2150.0000000000055, 1650.00000000002, 2060.000000000002, 1500.0000000000146, 183.25396710105883, -1, -1], [2759.9999999999345, 1540.0000000000273, 2709.99999999998, 1560.0000000000164, 184.4377124939775, -1, -1], [909.9999999999109, 119.99999999999727, 1129.9999999999673, 380.0000000000309, 20.00005421922544, -1, -1], [2330.0000000000127, 1740.0000000000236, 2279.9999999999163, 1710.0000000000218, 125.8705809601298, -1, -1], [939.9999999999127, 1910.0000000000182, 799.9999999999545, 1689.9999999999982, 144.72780206791538, -1, -1], [1879.9999999999964, 2580.00000000002, 1789.9999999999927, 2610.00000000002, 59.27807855738691, -1, -1], [1189.999999999969, 740.0000000000091, 1269.9999999999254, 850.0000000000018, 148.62933208449957, -1, -1], [1409.9999999998836, 1790.0000000000127, 1679.9999999998927, 1710.0000000000218, 179.11507892829835, -1, -1], [2039.9999999999072, 2030.0000000000218, 1959.999999999951, 2000.0000000000218, 194.65045140861235, -1, -1], [2459.9999999999236, 1940.0000000000182, 2379.9999999999673, 1890.000000000029, 100.15994002884712, -1, -1], [1779.9999999999436, 2420.000000000002, 1819.9999999999927, 2500.000000000029, 193.4420547218725, -1, -1], [1849.9999999999945, 1160.0000000000255, 1699.999999999989, 1240.0000000000164, 101.54345010226322, -1, -1], [1679.9999999998927, 2110.0000000000146, 1739.9999999998945, 2060.0000000000236, 182.03701178775066, -1, -1], [1699.999999999989, 1290.0000000000055, 1729.999999999989, 1320.0000000000073, 37.96994582320528, -1, -1], [1989.9999999999527, 1890.000000000029, 2009.9999999999054, 2150.0000000000273, 56.83187333878963, -1, -1], [1140.0000000000146, 1240.0000000000164, 1209.9999999999236, 1200.0000000000036, 194.69028097760528, -1, -1], [2180.0000000000073, 1560.0000000000164, 1739.9999999998945, 1380.000000000009, 99.8724115583262, -1, -1], [1789.9999999999927, 1100.0000000000227, 1739.9999999998945, 1140.000000000001, 188.18269596291157, -1, -1], [1179.9999999999218, 1270.0000000000182, 1459.99999999998, 1290.0000000000055, 78.6707246139679, -1, -1], [1479.9999999999327, 1410.000000000011, 1419.9999999999309, 1340.0000000000327, 170.65759008307134, -1, -1], [2210.0000000000073, 2150.0000000000273, 2349.9999999999654, 2110.0000000000146, 96.04539460352058, -1, -1], [2139.999999999958, 1800.0000000000255, 2169.99999999996, 1780.0000000000018, 148.74613105863966, -1, -1], [2069.9999999999072, 1750.0, 2000.0, 1580.0000000000055, 80.85761877047119, -1, -1], [1809.9999999999454, 1510.0000000000273, 1669.9999999999873, 1450.0000000000236, 132.94870432169347, -1, -1], [1459.99999999998, 860.0000000000136, 1629.9999999999382, 910.0000000000036, 73.4247662854176, -1, -1], [2259.999999999962, 2060.0000000000236, 2090.0000000000036, 2160.0000000000036, 176.54640481329076, -1, -1], [1439.9999999998836, 1600.000000000029, 1479.9999999999327, 1470.0000000000127, 155.16752999199304, -1, -1], [1299.9999999999254, 1130.0000000000236, 1339.9999999999745, 1079.9999999999982, 147.64309283301685, -1, -1], [1059.9999999999163, 1530.0000000000146, 969.9999999999127, 1510.0000000000273, 17.29351794564966, -1, -1], [1589.999999999889, 2240.000000000031, 1729.999999999989, 2200.0000000000164, 132.75156096879616, -1, -1], [2079.9999999999563, 1230.0000000000036, 2169.99999999996, 1260.0000000000055, 21.586252418819974, -1, -1], [1230.0000000000182, 1200.0000000000036, 1269.9999999999254, 1160.0000000000255, 32.73965942999484, -1, -1], [1859.9999999999, 2009.9999999999982, 2039.9999999999072, 1990.000000000009, 167.99030809589487, -1, -1], [1819.9999999999927, 1240.0000000000164, 1729.999999999989, 1320.0000000000073, 74.10453332914935, -1, -1], [2090.0000000000036, 1740.0000000000236, 2120.0000000000036, 1750.0, 146.55316178437317, -1, -1], [1399.9999999999782, 850.0000000000018, 1339.9999999999745, 860.0000000000136, 93.86402822060478, -1, -1], [599.9999999999945, 1490.0000000000018, 559.9999999999454, 1369.9999999999982, 61.705885385546196, -1, -1], [2519.9999999999254, 1719.9999999999982, 2480.000000000018, 1730.000000000011, 169.66031489251213, -1, -1], [-19.99999999998181, 1079.9999999999982, 49.99999999992633, 1109.999999999999, 122.96214341101606, -1, -1], [1799.9999999998981, 1049.9999999999973, 1709.9999999998945, 990.00000000003, 115.63518105983685, -1, -1], [1449.9999999999309, 520.0000000000246, 1489.99999999998, 590.0000000000036, 129.43123306386053, -1, -1], [1629.9999999999382, 980.0000000000182, 1619.9999999998909, 930.0000000000282, 33.71885940766119, -1, -1], [1080.0000000000127, 1079.9999999999982, 939.9999999999127, 1010.0000000000191, 45.387469205374465, -1, -1], [1299.9999999999254, 1630.000000000031, 1279.9999999999727, 1700.000000000009, 2.4603169717239304, -1, -1], [1829.9999999998981, 1620.0000000000182, 1679.9999999998927, 1650.00000000002, 39.90327349248146, -1, -1], [1819.9999999999927, 2200.0000000000164, 1959.999999999951, 2210.000000000029, 184.01728698654438, -1, -1]]</t>
-        </is>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2">
+        <v>4</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>3</v>
+      </c>
+      <c r="AS2">
+        <v>2</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2">
+        <v>2</v>
+      </c>
+      <c r="BC2">
+        <v>2</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>3</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>3</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>2</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>2</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>2</v>
+      </c>
+      <c r="BX2">
+        <v>4</v>
+      </c>
+      <c r="BY2">
+        <v>3</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>1</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[[1189.999999999969, 1460.0, 1119.99999999992, 1440.0000000000127, 109.6676934244873, -1, -1], [1519.9999999999818, 2180.0000000000273, 1379.9999999998818, 2130.000000000002, 80.89097367789097, -1, -1], [1159.9999999999673, 2030.0000000000218, 1309.9999999999745, 1970.00000000002, 68.76517825196294, -1, -1], [149.99999999997726, 1540.0000000000273, 169.99999999993088, 1410.000000000011, 169.4921978977245, -1, -1], [2339.999999999918, 430.0000000000209, 2450.0000000000164, 820.0, 70.65483251084643, -1, -1], [2199.99999999996, 2090.0000000000255, 2049.9999999999545, 2070.0, 181.95100317788044, -1, -1], [969.9999999999127, 2070.0, 879.9999999999109, 2009.9999999999982, 131.8429627239649, -1, -1], [1339.9999999999745, 650.0000000000055, 1329.9999999999272, 700.0000000000309, 121.78896510171336, -1, -1], [1439.9999999998836, 1590.0000000000182, 1409.9999999998836, 1480.0000000000255, 145.880036064549, -1, -1], [1579.9999999999836, 2000.0000000000218, 1659.99999999994, 1890.000000000029, 76.73792657800797, -1, -1], [1839.9999999999472, 1150.0000000000127, 1889.9999999999018, 1240.0000000000164, 171.38982537461206, -1, -1], [1359.999999999929, 2270.000000000031, 1419.9999999999309, 1750.0, 190.92926068034703, -1, -1], [1799.9999999998981, 1010.0000000000191, 1819.9999999999927, 980.0000000000182, 187.69184014276178, -1, -1], [799.9999999999545, 1689.9999999999982, 879.9999999999109, 1770.0000000000236, 102.49998690059765, -1, -1], [1279.9999999999727, 1390.0000000000218, 1319.99999999988, 1399.9999999999982, 25.849885521349727, -1, -1], [1829.9999999998981, 2120.0000000000255, 1749.9999999999436, 2060.0000000000236, 155.4794364591805, -1, -1], [1959.999999999951, 1740.0000000000236, 1929.999999999949, 1860.0000000000273, 41.09705154015224, -1, -1], [1799.9999999998981, 2170.0000000000164, 1749.9999999999436, 2190.0000000000055, 189.94385310429826, -1, -1], [1429.9999999999782, 1030.0000000000082, 1399.9999999999782, 1090.000000000011, 96.22036348284804, -1, -1], [10.0000000000191, 400.00000000002, 89.99999999997453, 370.0000000000191, 72.94720943272013, -1, -1], [1839.9999999999472, 1880.0000000000164, 1909.9999999999964, 1860.0000000000273, 110.88023811554821, -1, -1], [1329.9999999999272, 750.0000000000209, 1260.00000000002, 880.0000000000027, 188.20270226109096, -1, -1], [1859.9999999999, 1090.000000000011, 1779.9999999999436, 1040.00000000002, 82.68000853795574, -1, -1], [1399.9999999999782, 670.00000000003, 1419.9999999999309, 740.0000000000091, 162.6703014325946, -1, -1], [2839.999999999889, 1090.000000000011, 2069.9999999999072, 1260.0000000000055, 82.88490376782107, -1, -1], [1879.9999999999964, 1170.0000000000018, 1929.999999999949, 1210.0000000000146, 0.3169499911051865, -1, -1], [319.99999999993634, 510.0000000000118, 509.9999999999909, 310.00000000001637, 108.02191141767716, -1, -1], [1829.9999999998981, 2150.0000000000273, 1959.999999999951, 2210.000000000029, 157.28887708850573, -1, -1], [1889.9999999999018, 2570.0000000000073, 1919.9999999999018, 2510.0000000000055, 66.22749039254604, -1, -1], [2229.999999999962, 1260.0000000000055, 1969.9999999999982, 1410.000000000011, 119.9710369526967, -1, -1], [339.99999999988904, 1560.0000000000164, 259.9999999999345, 1410.000000000011, 160.9138969028071, -1, -1], [1189.999999999969, 1480.0000000000255, 1299.9999999999254, 1399.9999999999982, 127.07421806039103, -1, -1], [1849.9999999999945, 2160.0000000000036, 1969.9999999999982, 2130.000000000002, 110.15125302145015, -1, -1], [1789.9999999999927, 1520.0000000000036, 1729.999999999989, 1550.0000000000036, 36.15679869206079, -1, -1], [900.0000000000055, 1610.0000000000073, 759.9999999999054, 1550.0000000000036, 18.32028150325855, -1, -1], [1709.9999999998945, 1140.000000000001, 1629.9999999999382, 1190.0000000000264, 110.20582735105984, -1, -1], [1319.99999999988, 1450.0000000000236, 1389.999999999929, 1340.0000000000327, 170.25480243032777, -1, -1], [659.9999999999964, 1710.0000000000218, 729.9999999999054, 1640.0000000000073, 186.19000502719587, -1, -1], [-19.99999999998181, 1040.00000000002, 69.99999999987995, 930.0000000000282, 6.491826238848009, -1, -1], [1329.9999999999272, 2310.000000000009, 1209.9999999999236, 2230.000000000018, 188.71405075954425, -1, -1], [1589.999999999889, 1490.0000000000018, 1639.9999999999854, 1369.9999999999982, 14.0906946111234, -1, -1], [439.9999999999418, 680.0000000000073, 319.99999999993634, 510.0000000000118, 173.6156180749694, -1, -1], [2289.9999999999636, 1600.000000000029, 2259.999999999962, 1640.0000000000073, 90.59975745463366, -1, -1], [2069.9999999999072, 1700.000000000009, 1849.9999999999945, 1640.0000000000073, 150.82905703125414, -1, -1], [2489.9999999999236, 1760.0000000000127, 2189.9999999999127, 1740.0000000000236, 56.23933561080578, -1, -1], [750.0, 1830.0000000000273, 879.9999999999109, 1640.0000000000073, 53.72834668977353, -1, -1], [509.9999999999909, 1340.0000000000327, 599.9999999999945, 1320.0000000000073, 159.45754293322872, -1, -1], [1189.999999999969, 920.0000000000164, 1159.9999999999673, 880.0000000000027, 36.922036624584884, -1, -1], [189.99999999988358, 439.9999999999982, 289.9999999999345, 490.00000000002365, 58.05686424600389, -1, -1], [2360.0000000000146, 1910.0000000000182, 2339.999999999918, 1850.0000000000164, 33.49406146947371, -1, -1], [1189.999999999969, 1460.0, 1179.9999999999218, 1540.0000000000273, 51.0432236304587, -1, -1], [1469.9999999998854, 1120.0000000000118, 1449.9999999999309, 1070.0000000000218, 190.39153034708642, -1, -1], [679.9999999999491, 930.0000000000282, 840.0000000000036, 789.9999999999991, 131.33130114214782, -1, -1], [900.0000000000055, 1719.9999999999982, 870.0000000000036, 1659.9999999999964, 129.64056091247485, -1, -1], [1889.9999999999018, 1190.0000000000264, 1879.9999999999964, 1250.000000000029, 58.898555419894485, -1, -1], [1329.9999999999272, 700.0000000000309, 1279.9999999999727, 740.0000000000091, 140.52511054575706, -1, -1], [999.9999999999145, 680.0000000000073, 840.0000000000036, 650.0000000000055, 99.29873119856568, -1, -1], [2009.9999999999054, 1550.0000000000036, 2099.999999999909, 1630.000000000031, 22.838129138401996, -1, -1], [1739.9999999998945, 2050.000000000011, 1799.9999999998981, 1790.0000000000127, 62.40098534011409, -1, -1], [1129.9999999999673, 1830.0000000000273, 1249.999999999971, 1790.0000000000127, 68.6684942557196, -1, -1], [1669.9999999999873, 2270.000000000031, 1959.999999999951, 2280.000000000009, 159.24060223704473, -1, -1], [1759.999999999991, 1109.999999999999, 1659.99999999994, 1030.0000000000082, 51.68416665309918, -1, -1], [1269.9999999999254, 1750.0, 1339.9999999999745, 1650.00000000002, 50.69162979694977, -1, -1], [1619.9999999998909, 2180.0000000000273, 1729.999999999989, 2200.0000000000164, 146.0304461570322, -1, -1]]</t>
-        </is>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>3</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3">
+        <v>4</v>
+      </c>
+      <c r="BD3">
+        <v>2</v>
+      </c>
+      <c r="BE3">
+        <v>5</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>2</v>
+      </c>
+      <c r="BO3">
+        <v>3</v>
+      </c>
+      <c r="BP3">
+        <v>3</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>2</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>4</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>1</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[[1170.0000000000164, 1680.0000000000218, 1129.9999999999673, 1640.0000000000073, 195.34765513105836, -1, -1], [2279.9999999999163, 2150.0000000000273, 2219.9999999999127, 2140.0000000000146, 193.11270357019995, -1, -1], [2019.9999999999527, 1760.0000000000127, 1589.999999999889, 1790.0000000000127, 86.33110942995496, -1, -1], [2309.9999999999163, 2290.00000000002, 2279.9999999999163, 2160.0000000000036, 195.1106861543925, -1, -1], [2330.0000000000127, 2170.0000000000164, 2360.0000000000146, 2260.00000000002, 45.07480266372041, -1, -1], [1609.9999999999854, 1650.00000000002, 1779.9999999999436, 1510.0000000000273, 79.46307382950447, -1, -1], [2069.9999999999072, 2020.000000000011, 1649.9999999998927, 1940.0000000000182, 7.065209327392963, -1, -1], [1029.9999999999163, 420.0000000000091, 939.9999999999127, 450.00000000001, 191.97866344485817, -1, -1], [1659.99999999994, 1030.0000000000082, 1799.9999999998981, 1070.0000000000218, 89.13370326847676, -1, -1], [1269.9999999999254, 2340.000000000011, 1329.9999999999272, 1880.0000000000164, 101.2618626328942, -1, -1], [1699.999999999989, 1580.0000000000055, 1739.9999999998945, 1510.0000000000273, 85.33300540551865, -1, -1], [479.9999999999891, 1170.0000000000018, 449.9999999999891, 1300.0000000000182, 166.44898089855872, -1, -1], [2330.0000000000127, 1940.0000000000182, 2249.9999999999145, 1870.0000000000036, 195.39523121058122, -1, -1], [1409.9999999998836, 1780.0000000000018, 1319.99999999988, 1820.0000000000146, 126.15436732442804, -1, -1], [-660.0000000000537, 149.99999999999818, -800.0000000000109, 20.00000000001728, 139.0101783224933, -1, -1], [1489.99999999998, 1640.0000000000073, 1529.9999999998872, 1610.0000000000073, 90.16900542854633, -1, -1], [1449.9999999999309, 1240.0000000000164, 1519.9999999999818, 1290.0000000000055, 104.77908797339562, -1, -1], [379.99999999993815, 550.0000000000255, 429.9999999998927, 270.00000000000273, 6.140055350807305, -1, -1], [2159.999999999911, 2180.0000000000273, 2210.0000000000073, 2220.0000000000055, 134.9805155036538, -1, -1], [1230.0000000000182, 510.0000000000118, 1289.9999999998781, 550.0000000000255, 160.67710268683106, -1, -1], [2259.999999999962, 2060.0000000000236, 2219.9999999999127, 2050.000000000011, 131.96477835021594, -1, -1], [960.0000000000073, 1760.0000000000127, 1119.99999999992, 1740.0000000000236, 85.2598757427709, -1, -1], [870.0000000000036, 700.0000000000309, 840.0000000000036, 650.0000000000055, 147.49025001914197, -1, -1], [2030.0000000000018, 2110.0000000000146, 1979.9999999999054, 2120.0000000000255, 25.136664461945447, -1, -1], [1829.9999999998981, 980.0000000000182, 1459.99999999998, 820.0, 42.42633860637879, -1, -1], [2019.9999999999527, 1580.0000000000055, 2049.9999999999545, 1630.000000000031, 9.488034704903692, -1, -1], [1209.9999999999236, 1650.00000000002, 1119.99999999992, 1630.000000000031, 14.145375577381847, -1, -1], [719.9999999999982, 1330.00000000002, 699.9999999999036, 1430.0, 15.289231107180745, -1, -1], [1549.9999999999836, 1100.0000000000227, 1569.9999999999363, 1060.000000000009, 183.43526264919106, -1, -1], [359.99999999998545, 1979.9999999999964, 279.9999999998872, 1960.0000000000073, 59.57596114850359, -1, -1], [1149.99999999992, 1280.000000000029, 1200.0000000000164, 1290.0000000000055, 31.64147796656527, -1, -1], [2330.0000000000127, 1860.0000000000273, 2249.9999999999145, 1840.0000000000036, 112.98814453535988, -1, -1], [1189.999999999969, 1460.0, 1009.9999999999618, 1380.000000000009, 26.078225684881584, -1, -1], [1369.9999999999764, 1290.0000000000055, 1439.9999999998836, 1310.000000000031, 112.14346420573872, -1, -1], [759.9999999999054, 1920.000000000031, 669.9999999999018, 1719.9999999999982, 170.1053321926542, -1, -1], [1659.99999999994, 1960.0000000000073, 1719.9999999999418, 1880.0000000000164, 118.11679425748305, -1, -1], [1209.9999999999236, 1880.0000000000164, 1189.999999999969, 1810.0000000000018, 43.5180678400414, -1, -1], [1549.9999999999836, 2060.0000000000236, 1439.9999999998836, 1979.9999999999964, 180.16259904247607, -1, -1], [1959.999999999951, 1580.0000000000055, 1919.9999999999018, 1740.0000000000236, 92.1704980306582, -1, -1], [2009.9999999999054, 1510.0000000000273, 1859.9999999999, 1600.000000000029, 165.58263133135597, -1, -1], [519.9999999998963, 1250.000000000029, 409.99999999994, 1300.0000000000182, 173.97728558447244, -1, -1], [939.9999999999127, 1420.0000000000236, 1029.9999999999163, 1330.00000000002, 156.0034538865434, -1, -1], [769.9999999999527, 90.00000000003183, 889.9999999999582, 50.00000000001819, 124.59256277810596, -1, -1], [1020.0000000000109, 610.0000000000282, 1029.9999999999163, 870.0000000000255, 7.484675016952802, -1, -1], [2459.9999999999236, 1010.0000000000191, 2510.00000000002, 1090.000000000011, 40.08149109323453, -1, -1], [2079.9999999999563, 2009.9999999999982, 2019.9999999999527, 2050.000000000011, 19.805072554590918, -1, -1], [1479.9999999999327, 960.0000000000291, 1509.9999999999345, 1010.0000000000191, 114.67654060446174, -1, -1], [479.9999999999891, 1170.0000000000018, 389.99999999998545, 1260.0000000000055, 179.31314920328575, -1, -1], [2390.0000000000146, 1730.000000000011, 2330.0000000000127, 1740.0000000000236, 118.28186242896115, -1, -1], [1269.9999999999254, 2240.000000000031, 1319.99999999988, 2299.9999999999964, 98.47015008989604, -1, -1], [2019.9999999999527, 1790.0000000000127, 1889.9999999999018, 1900.0000000000055, 187.59078035646309, -1, -1], [1909.9999999999964, 1890.000000000029, 1969.9999999999982, 1860.0000000000273, 78.01210775386194, -1, -1], [1239.9999999999236, 1520.0000000000036, 1209.9999999999236, 1470.0000000000127, 100.82147344917047, -1, -1], [289.9999999999345, 490.00000000002365, 319.99999999993634, 450.00000000001, 3.4400393446470057, -1, -1], [1469.9999999998854, 1210.0000000000146, 1539.9999999999345, 1160.0000000000255, 122.42567222061977, -1, -1], [750.0, 1030.0000000000082, 709.9999999999509, 1049.9999999999973, 80.46494260382393, -1, -1], [1629.9999999999382, 1240.0000000000164, 1539.9999999999345, 1270.0000000000182, 56.270343092222475, -1, -1], [2519.9999999999254, 1800.0000000000255, 2510.00000000002, 1870.0000000000036, 31.393058897335834, -1, -1], [1779.9999999999436, 729.9999999999973, 1739.9999999998945, 810.0000000000236, 171.50734860858427, -1, -1], [89.99999999997453, 370.0000000000191, 109.99999999992815, 260.0000000000264, 162.2278123901035, -1, -1], [2229.999999999962, 1330.00000000002, 2240.000000000009, 1420.0000000000236, 112.66810712620672, -1, -1], [1069.9999999999654, 1630.000000000031, 1110.0000000000146, 1640.0000000000073, 27.028628198944983, -1, -1]]</t>
-        </is>
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>3</v>
+      </c>
+      <c r="AI4">
+        <v>4</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>2</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <v>3</v>
+      </c>
+      <c r="BD4">
+        <v>4</v>
+      </c>
+      <c r="BE4">
+        <v>4</v>
+      </c>
+      <c r="BF4">
+        <v>4</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>2</v>
+      </c>
+      <c r="BN4">
+        <v>6</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>4</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>4</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>2</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
+      <c r="AT5">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[[1739.9999999998945, 2050.000000000011, 1689.9999999999418, 2110.0000000000146, 85.8480829194632, -1, -1], [1429.9999999999782, 1350.000000000009, 1309.9999999999745, 1399.9999999999982, 53.30709021457294, -1, -1], [2219.9999999999127, 1060.000000000009, 2180.0000000000073, 1109.999999999999, 19.28102051869194, -1, -1], [1569.9999999999363, 2190.0000000000055, 1739.9999999998945, 2200.0000000000164, 75.84674199251454, -1, -1], [1639.9999999999854, 2350.000000000022, 1789.9999999999927, 2310.000000000009, 109.52530405499013, -1, -1], [1919.9999999999018, 2510.0000000000055, 1849.9999999999945, 2360.0, 182.88892788051544, -1, -1], [1339.9999999999745, 1480.0000000000255, 1439.9999999998836, 1280.000000000029, 167.5385500298592, -1, -1], [1559.999999999889, 1399.9999999999982, 1439.9999999998836, 1330.00000000002, 106.86600876524852, -1, -1], [1269.9999999999254, 850.0000000000018, 1230.0000000000182, 1140.000000000001, 153.59023658261927, -1, -1], [1599.9999999999382, 1710.0000000000218, 1260.00000000002, 1910.0000000000182, 106.50408302939003, -1, -1], [1119.99999999992, 1510.0000000000273, 1209.9999999999236, 1460.0, 13.064553924598066, -1, -1], [629.9999999999964, 1380.000000000009, 689.9999999999982, 1280.000000000029, 8.080090708554133, -1, -1], [2339.999999999918, 2280.000000000009, 2390.0000000000146, 2070.0, 26.603402450224966, -1, -1], [1849.9999999999945, 1689.9999999999982, 1909.9999999999964, 1750.0, 33.310510085504916, -1, -1], [2030.0000000000018, 1580.0000000000055, 2189.9999999999127, 1630.000000000031, 107.64174791122703, -1, -1], [179.99999999997817, 1650.00000000002, 289.9999999999345, 1590.0000000000182, 53.60198879110243, -1, -1], [1749.9999999999436, 1040.00000000002, 1809.9999999999454, 1140.000000000001, 66.44669562609317, -1, -1], [1399.9999999999782, 439.9999999999982, 1429.9999999999782, 340.0000000000173, 101.17769664694696, -1, -1], [1709.9999999998945, 2140.0000000000146, 1749.9999999999436, 2180.0000000000273, 51.05824525372385, -1, -1], [889.9999999999582, 600.0000000000155, 719.9999999999982, 789.9999999999991, 67.77031621379439, -1, -1], [1050.000000000011, 970.0000000000064, 1399.9999999999782, 850.0000000000018, 22.782582478546033, -1, -1], [1829.9999999998981, 1020.0000000000318, 1719.9999999999418, 960.0000000000291, 47.037902276843504, -1, -1], [1379.9999999998818, 190.00000000001182, 1260.00000000002, 310.00000000001637, 188.79897982475538, -1, -1], [1939.9999999999982, 2160.0000000000036, 1969.9999999999982, 2130.000000000002, 155.90796910868207, -1, -1], [2309.9999999999163, 1910.0000000000182, 2249.9999999999145, 1870.0000000000036, 143.0217279304044, -1, -1], [2279.9999999999163, 1710.0000000000218, 2109.9999999999563, 1870.0000000000036, 97.7585645546704, -1, -1], [1989.9999999999527, 1890.000000000029, 2109.9999999999563, 1979.9999999999964, 115.99141143436799, -1, -1], [1759.999999999991, 740.0000000000091, 1739.9999999998945, 810.0000000000236, 154.05063197653737, -1, -1], [1369.9999999999764, 830.0000000000127, 1269.9999999999254, 870.0000000000255, 64.14519107213287, -1, -1], [1249.999999999971, 1680.0000000000218, 1449.9999999999309, 1780.0000000000018, 81.31978522716972, -1, -1], [859.9999999999563, 1740.0000000000236, 799.9999999999545, 1680.0000000000218, 76.04604790533833, -1, -1], [2240.000000000009, 1420.0000000000236, 2099.999999999909, 1410.000000000011, 198.24667541402047, -1, -1], [429.9999999998927, 270.00000000000273, 519.9999999998963, 310.00000000001637, 29.465676588574, -1, -1], [1879.9999999999964, 1530.0000000000146, 1839.9999999999472, 1460.0, 25.00345012679317, -1, -1], [1009.9999999999618, 210.0000000000009, 930.0000000000073, 680.0000000000073, 22.937872432449492, -1, -1], [1769.9999999998963, 1960.0000000000073, 1759.999999999991, 2000.0000000000218, 117.48158452198444, -1, -1], [1879.9999999999964, 1230.0000000000036, 1859.9999999999, 1270.0000000000182, 185.23308840101902, -1, -1], [2169.99999999996, 2290.00000000002, 2129.999999999911, 2329.999999999998, 15.33032740769016, -1, -1], [599.9999999999945, 750.0000000000209, 629.9999999999964, 729.9999999999973, 110.05495074944804, -1, -1], [2139.999999999958, 1570.000000000029, 1849.9999999999945, 1659.9999999999964, 113.19330346844086, -1, -1], [1879.9999999999964, 1170.0000000000018, 1919.9999999999018, 1200.0000000000036, 190.4492456715161, -1, -1], [1029.9999999999163, 1719.9999999999982, 1129.9999999999673, 1730.000000000011, 72.97836078817863, -1, -1], [1619.9999999998909, 2030.0000000000218, 1739.9999999998945, 2060.0000000000236, 59.110521621177824, -1, -1], [1099.9999999999654, 1060.000000000009, 1230.0000000000182, 1010.0000000000191, 106.85883749286414, -1, -1], [889.9999999999582, -149.99999999997726, 789.9999999999072, 30.000000000029104, 22.86322036053128, -1, -1], [1749.9999999999436, 810.0000000000236, 1739.9999999998945, 789.9999999999991, 179.35188304958157, -1, -1], [2300.000000000011, 1780.0000000000018, 2279.9999999999163, 1810.0000000000018, 21.546137015543376, -1, -1], [1589.999999999889, 1640.0000000000073, 1729.999999999989, 1600.000000000029, 9.150346856963854, -1, -1], [1389.999999999929, 1109.999999999999, 1469.9999999998854, 1120.0000000000118, 59.147587437006436, -1, -1], [1559.999999999889, 2280.000000000009, 1319.99999999988, 2299.9999999999964, 122.73538510562723, -1, -1], [2019.9999999999527, 1790.0000000000127, 1959.999999999951, 1820.0000000000146, 2.9096306736515753, -1, -1], [1719.9999999999418, 1580.0000000000055, 1759.999999999991, 1550.0000000000036, 82.70688670143855, -1, -1], [1719.9999999999418, 1900.0000000000055, 1769.9999999998963, 2030.0000000000218, 165.22399766007075, -1, -1], [1409.9999999998836, 1790.0000000000127, 1289.9999999998781, 1770.0000000000236, 157.97564244273832, -1, -1], [2270.000000000011, 2110.0000000000146, 2219.9999999999127, 2140.0000000000146, 37.584418415476904, -1, -1], [1899.999999999949, 1100.0000000000227, 1779.9999999999436, 1090.000000000011, 157.1024268689133, -1, -1], [2399.99999999992, 1700.000000000009, 2259.999999999962, 1689.9999999999982, 117.3585748985612, -1, -1], [1140.0000000000146, 1130.0000000000236, 939.9999999999127, 1160.0000000000255, 32.403966956672335, -1, -1], [1779.9999999999436, 2050.000000000011, 1959.999999999951, 1800.0000000000255, 90.18172348645841, -1, -1], [1469.9999999998854, 1100.0000000000227, 1659.99999999994, 1180.0000000000136, 136.1780080816452, -1, -1], [479.9999999999891, 1200.0000000000036, 389.99999999998545, 1210.0000000000146, 31.788952267179504, -1, -1], [729.9999999999054, 110.00000000002092, 679.9999999999491, 70.00000000000728, 169.0037803394111, -1, -1], [529.9999999999436, 1540.0000000000273, 469.9999999999418, 1420.0000000000236, 87.02056692654551, -1, -1], [2189.9999999999127, 1280.000000000029, 2249.9999999999145, 1260.0000000000055, 192.9387589965422, -1, -1], [1219.999999999971, 2030.0000000000218, 1369.9999999999764, 2050.000000000011, 161.2974732671142, -1, -1], [1579.9999999999836, 1350.000000000009, 1409.9999999998836, 1280.000000000029, 108.58508930984544, -1, -1], [1549.9999999999836, 1530.0000000000146, 1719.9999999999418, 1540.0000000000273, 163.67002173367675, -1, -1], [1309.9999999999745, 1560.0000000000164, 1260.00000000002, 1640.0000000000073, 110.04181691022237, -1, -1], [1689.9999999999418, 2020.000000000011, 1769.9999999998963, 1970.00000000002, 142.32218932659936, -1, -1], [1429.9999999999782, 2050.000000000011, 2030.0000000000018, 2030.0000000000218, 62.89194837231806, -1, -1], [930.0000000000073, 890.0000000000146, 889.9999999999582, 970.0000000000064, 41.5229240835461, -1, -1], [1219.999999999971, 1180.0000000000136, 1230.0000000000182, 1109.999999999999, 63.483268081575936, -1, -1], [2219.9999999999127, 2110.0000000000146, 2139.999999999958, 2020.000000000011, 5.452509240070191, -1, -1], [1379.9999999998818, 980.0000000000182, 1309.9999999999745, 1109.999999999999, 157.37199035671892, -1, -1]]</t>
-        </is>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>4</v>
+      </c>
+      <c r="BB5">
+        <v>2</v>
+      </c>
+      <c r="BC5">
+        <v>2</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>3</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>3</v>
+      </c>
+      <c r="BO5">
+        <v>2</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>3</v>
+      </c>
+      <c r="BZ5">
+        <v>2</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>3</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>2</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>2</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>2</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>2</v>
+      </c>
+      <c r="BD6">
+        <v>3</v>
+      </c>
+      <c r="BE6">
+        <v>3</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>2</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>2</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>2</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>3</v>
+      </c>
+      <c r="BE7">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[[1969.9999999999982, 2280.000000000009, 1849.9999999999945, 2270.000000000031, 185.12073501281418, -1, -1], [669.9999999999018, 1719.9999999999982, 629.9999999999964, 1670.000000000009, 145.29674589122928, -1, -1], [2150.0000000000055, 270.00000000000273, 2120.0000000000036, 250.00000000001455, 64.05025489605147, -1, -1], [2039.9999999999072, 1990.000000000009, 1989.9999999999527, 1979.9999999999964, 78.25381057453282, -1, -1], [2079.9999999999563, 1510.0000000000273, 2189.9999999999127, 1520.0000000000036, 79.71103200758216, -1, -1], [1419.9999999999309, 740.0000000000091, 1379.9999999998818, 729.9999999999973, 12.838396300959598, -1, -1], [1200.0000000000164, 1120.0000000000118, 1230.0000000000182, 1020.0000000000318, 63.469907596429096, -1, -1], [2030.0000000000018, 1810.0000000000018, 1969.9999999999982, 1820.0000000000146, 120.28938080340102, -1, -1], [1799.9999999998981, 2470.0000000000273, 1849.9999999999945, 2510.0000000000055, 91.17159711027489, -1, -1], [2049.9999999999545, 1630.000000000031, 1959.999999999951, 1640.0000000000073, 50.012564979781594, -1, -1], [1409.9999999998836, 1440.0000000000127, 1459.99999999998, 1399.9999999999982, 157.02712329895328, -1, -1], [819.9999999999072, -159.9999999999891, 589.9999999999472, -289.9999999999709, 155.58392551534305, -1, -1], [2180.0000000000073, 2009.9999999999982, 1979.9999999999054, 2030.0000000000218, 178.24187955694376, -1, -1], [589.9999999999472, 780.0000000000227, 619.9999999999472, 810.0000000000236, 173.52276845006617, -1, -1], [1879.9999999999964, 1109.999999999999, 1929.999999999949, 1100.0000000000227, 93.7840203372157, -1, -1], [1119.99999999992, 1160.0000000000255, 1059.9999999999163, 1190.0000000000264, 71.16539665920433, -1, -1], [1249.999999999971, 1600.000000000029, 1429.9999999999782, 1700.000000000009, 36.644548984769365, -1, -1], [1569.9999999999363, 1960.0000000000073, 1409.9999999998836, 1930.0000000000073, 41.56738118428158, -1, -1], [1479.9999999999327, 2130.000000000002, 1269.9999999999254, 1940.0000000000182, 39.84317965266286, -1, -1], [759.9999999999054, 1550.0000000000036, 1069.9999999999654, 1380.000000000009, 72.09271651710385, -1, -1], [1489.99999999998, 1430.0, 1459.99999999998, 1440.0000000000127, 163.99540943024564, -1, -1], [1719.9999999999418, 1440.0000000000127, 1679.9999999998927, 1390.0000000000218, 17.88296250012027, -1, -1], [1369.9999999999764, 610.0000000000282, 1379.9999999998818, 880.0000000000027, 150.65733708128667, -1, -1], [799.9999999999545, 1689.9999999999982, 729.9999999999054, 1719.9999999999982, 18.097687739149528, -1, -1], [1429.9999999999782, 1790.0000000000127, 1289.9999999998781, 1780.0000000000018, 114.87124658147405, -1, -1], [2210.0000000000073, 2230.000000000018, 2240.000000000009, 2310.000000000009, 67.77675739040154, -1, -1], [2300.000000000011, 2280.000000000009, 2319.9999999999654, 2350.000000000022, 45.485246763346396, -1, -1], [1299.9999999999254, 350.00000000003, 1260.00000000002, 320.0000000000291, 193.3196176689629, -1, -1], [1389.999999999929, 1030.0000000000082, 1359.999999999929, 980.0000000000182, 8.21045089847059, -1, -1], [1969.9999999999982, 2130.000000000002, 1989.9999999999527, 2160.0000000000036, 37.36257004251351, -1, -1], [1119.99999999992, 1740.0000000000236, 1029.9999999999163, 1760.0000000000127, 158.54636109938437, -1, -1], [2219.9999999999127, 1600.000000000029, 2139.999999999958, 1640.0000000000073, 115.80132677182591, -1, -1], [900.0000000000055, 1610.0000000000073, 969.9999999999127, 1580.0000000000055, 184.27029297174414, -1, -1], [930.0000000000073, 710.0000000000082, 759.9999999999054, 770.00000000001, 49.16962584008784, -1, -1], [1110.0000000000146, 1390.0000000000218, 990.0000000000091, 1450.0000000000236, 20.18952450785847, -1, -1], [1479.9999999999327, 1470.0000000000127, 1629.9999999999382, 1480.0000000000255, 122.27834996429894, -1, -1], [1589.999999999889, 1320.0000000000073, 1569.9999999999363, 1250.000000000029, 161.51353954667232, -1, -1], [669.9999999999018, 1719.9999999999982, 709.9999999999509, 1630.000000000031, 18.408784635511033, -1, -1], [1749.9999999999436, 1940.0000000000182, 1709.9999999998945, 2020.000000000011, 44.03108510430756, -1, -1], [1179.9999999999218, 980.0000000000182, 1260.00000000002, 960.0000000000291, 161.65267265403165, -1, -1], [859.9999999999563, 1470.0000000000127, 659.9999999999964, 1650.00000000002, 80.35473089266945, -1, -1], [1669.9999999999873, 1060.000000000009, 1559.999999999889, 1170.0000000000018, 53.61276351094952, -1, -1], [2069.9999999999072, 1700.000000000009, 1979.9999999999054, 1680.0000000000218, 173.51121018963508, -1, -1], [1679.9999999998927, 1390.0000000000218, 1719.9999999999418, 1360.00000000002, 145.83385299910574, -1, -1], [759.9999999999054, 1930.0000000000073, 789.9999999999072, 1689.9999999999982, 4.302815549644956, -1, -1], [1489.99999999998, 1260.0000000000055, 1559.999999999889, 1270.0000000000182, 1.983392671974804, -1, -1], [1309.9999999999745, 1260.0000000000055, 1419.9999999999309, 1280.000000000029, 150.14574794796818, -1, -1], [1829.9999999998981, 2150.0000000000273, 1819.9999999999927, 1990.000000000009, 71.83827533313787, -1, -1], [1170.0000000000164, 2350.000000000022, 1219.999999999971, 2390.0, 93.7668798307314, -1, -1], [1739.9999999998945, 2050.000000000011, 1779.9999999999436, 2110.0000000000146, 171.82301752892076, -1, -1], [1119.99999999992, 510.0000000000118, 949.99999999996, 620.0000000000045, 20.18689140890475, -1, -1], [1119.99999999992, 2580.00000000002, 1080.0000000000127, 2560.000000000031, 155.5491816922776, -1, -1]]</t>
-        </is>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>2</v>
+      </c>
+      <c r="BP7">
+        <v>2</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[[1429.9999999999782, 1480.0000000000255, 1439.9999999998836, 1340.0000000000327, 65.61871033475843, -1, -1], [1819.9999999999927, 2110.0000000000146, 1749.9999999999436, 2060.0000000000236, 101.85400687043062, -1, -1], [1359.999999999929, 1790.0000000000127, 1279.9999999999727, 1770.0000000000236, 133.04948981589393, -1, -1], [1219.999999999971, 310.00000000001637, 1249.999999999971, 320.0000000000291, 35.913285279585395, -1, -1], [1799.9999999998981, 1770.0000000000236, 1879.9999999999964, 1920.000000000031, 29.91258797779064, -1, -1], [1479.9999999999327, 1590.0000000000182, 1709.9999999998945, 1650.00000000002, 28.307635816261367, -1, -1], [900.0000000000055, 420.0000000000091, 879.9999999999109, 610.0000000000282, 173.10912954775094, -1, -1], [1959.999999999951, 1640.0000000000073, 1709.9999999998945, 1950.000000000031, 61.124575297352266, -1, -1], [659.9999999999964, 1719.9999999999982, 709.9999999999509, 1630.000000000031, 141.8647982394073, -1, -1], [1239.9999999999236, 670.00000000003, 1200.0000000000164, 700.0000000000309, 166.93783241414565, -1, -1], [2060.000000000002, 1719.9999999999982, 2019.9999999999527, 1550.0000000000036, 120.37853046281559, -1, -1], [669.9999999999018, 1710.0000000000218, 659.9999999999964, 1659.9999999999964, 25.259964009760004, -1, -1], [1069.9999999999654, 1390.0000000000218, 1050.000000000011, 1440.0000000000127, 41.34811035049057, -1, -1], [2319.9999999999654, 2320.000000000022, 2289.9999999999636, 2140.0000000000146, 109.09859226715812, -1, -1], [1309.9999999999745, 1290.0000000000055, 1529.9999999998872, 1320.0000000000073, 144.5257097955941, -1, -1], [1699.999999999989, 1600.000000000029, 1799.9999999998981, 1480.0000000000255, 155.9486900509427, -1, -1], [1119.99999999992, 1350.000000000009, 1029.9999999999163, 1310.000000000031, 164.20596823556463, -1, -1], [569.9999999999927, 1310.000000000031, 709.9999999999509, 1320.0000000000073, 124.70551550962965, -1, -1], [459.9999999998945, 1270.0000000000182, 419.99999999998727, 1320.0000000000073, 134.43966494076514, -1, -1], [1519.9999999999818, 900.0000000000273, 1209.9999999999236, 1190.0000000000264, 110.59030419695155, -1, -1], [2060.000000000002, 1630.000000000031, 2030.0000000000018, 1600.000000000029, 188.6949222478045, -1, -1], [649.9999999999491, 700.0000000000309, 599.9999999999945, 759.9999999999982, 197.38706751107452, -1, -1], [870.0000000000036, 2210.000000000029, 859.9999999999563, 2450.0000000000036, 41.08683046423622, -1, -1], [1679.9999999998927, 960.0000000000291, 1809.9999999999454, 980.0000000000182, 59.785275805947165, -1, -1], [499.9999999999436, 1190.0000000000264, 409.99999999994, 1210.0000000000146, 107.49846273347279, -1, -1], [1110.0000000000146, 950.0000000000173, 1119.99999999992, 1040.00000000002, 9.711759857571778, -1, -1], [1729.999999999989, 1120.0000000000118, 1779.9999999999436, 1090.000000000011, 172.41979787912777, -1, -1], [2259.999999999962, 2210.000000000029, 2199.99999999996, 2180.0000000000273, 49.45937730757355, -1, -1], [1269.9999999999254, 900.0000000000273, 1260.00000000002, 880.0000000000027, 155.55530647101133, -1, -1], [119.99999999997635, 1590.0000000000182, 99.99999999988086, 1410.000000000011, 136.41516560820622, -1, -1], [1059.9999999999163, 1180.0000000000136, 1119.99999999992, 1140.000000000001, 89.33899821080658, -1, -1], [659.9999999999964, 1150.0000000000127, 750.0, 1120.0000000000118, 86.0342823703139, -1, -1], [1409.9999999998836, 1930.0000000000073, 1449.9999999999309, 1990.000000000009, 50.04396370258577, -1, -1], [990.0000000000091, 2530.000000000029, 879.9999999999109, 2480.0000000000036, 87.87976183189848, -1, -1], [1529.9999999998872, 1540.0000000000273, 1409.9999999998836, 1450.0000000000236, 107.61198170976292, -1, -1], [1799.9999999998981, 2310.000000000009, 1749.9999999999436, 2340.000000000011, 2.173305147454796, -1, -1], [1189.999999999969, 1090.000000000011, 1239.9999999999236, 1010.0000000000191, 167.25820055405666, -1, -1], [960.0000000000073, 660.0000000000182, 949.99999999996, 780.0000000000227, 34.30352100427312, -1, -1], [1739.9999999998945, 2370.000000000011, 1529.9999999998872, 2360.0, 97.15662155212237, -1, -1], [2060.000000000002, 2000.0000000000218, 2000.0, 2070.0, 158.61341453558032, -1, -1]]</t>
-        </is>
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>2</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>4</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>2</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>3</v>
+      </c>
+      <c r="BO8">
+        <v>3</v>
+      </c>
+      <c r="BP8">
+        <v>4</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>1</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>4</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>4</v>
+      </c>
+      <c r="AT9">
+        <v>2</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>2</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>1</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>0</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <v>2</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>2</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>1</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>3</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>2</v>
+      </c>
+      <c r="BO11">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[[1769.9999999998963, 1020.0000000000318, 1749.9999999999436, 1090.000000000011, 186.52788760763983, -1, -1], [2049.9999999999545, 1750.0, 1809.9999999999454, 1620.0000000000182, 195.2624001660997, -1, -1], [1709.9999999998945, 970.0000000000064, 1719.9999999999418, 1020.0000000000318, 3.7821949456954274, -1, -1], [1110.0000000000146, 960.0000000000291, 1299.9999999999254, 700.0000000000309, 138.3406838103286, -1, -1], [1189.999999999969, 1810.0000000000018, 1279.9999999999727, 1700.000000000009, 116.01411422831431, -1, -1], [699.9999999999036, 1830.0000000000273, 659.9999999999964, 1680.0000000000218, 118.70926637221726, -1, -1], [1679.9999999998927, 1750.0, 1559.999999999889, 1659.9999999999964, 27.69915947185897, -1, -1], [1499.9999999998872, 1020.0000000000318, 1449.9999999999309, 1079.9999999999982, 196.64341334839816, -1, -1], [1979.9999999999054, 1900.0000000000055, 2069.9999999999072, 1870.0000000000036, 55.38286626010731, -1, -1], [870.0000000000036, 1550.0000000000036, 1050.000000000011, 1640.0000000000073, 112.814388276759, -1, -1], [2210.0000000000073, 2050.000000000011, 2039.9999999999072, 2070.0, 34.43484397596854, -1, -1], [1170.0000000000164, 1420.0000000000236, 1189.999999999969, 1460.0, 17.84944569100386, -1, -1], [19.99999999992542, 439.9999999999982, 89.99999999997453, 380.0000000000309, 97.19934017580326, -1, -1], [1399.9999999999782, 720.00000000002, 1230.0000000000182, 650.0000000000055, 35.51562209233901, -1, -1], [889.9999999999582, 1600.000000000029, 900.0000000000055, 1560.0000000000164, 63.44832703605236, -1, -1], [1809.9999999999454, 1620.0000000000182, 1779.9999999999436, 1659.9999999999964, 178.60706694251235, -1, -1], [919.99999999996, 1630.000000000031, 849.999999999909, 1640.0000000000073, 184.08710723864576, -1, -1], [2060.000000000002, 2000.0000000000218, 2099.999999999909, 1960.0000000000073, 186.0215763546722, -1, -1], [1769.9999999998963, 1900.0000000000055, 1949.9999999999036, 2030.0000000000218, 127.82216926130943, -1, -1], [1399.9999999999782, 2350.000000000022, 1319.99999999988, 2310.000000000009, 45.14611547943155, -1, -1], [1089.9999999999181, 670.00000000003, 979.9999999999618, 680.0000000000073, 62.596976004648575, -1, -1], [509.9999999999909, 2490.0000000000164, 519.9999999998963, 2570.0000000000073, 137.3898721915884, -1, -1], [1459.99999999998, 1070.0000000000218, 1399.9999999999782, 1190.0000000000264, 191.30794588485668, -1, -1], [1959.999999999951, 2290.00000000002, 1929.999999999949, 2420.000000000002, 142.56922217048128, -1, -1], [2139.999999999958, 2280.000000000009, 2069.9999999999072, 2350.000000000022, 67.39029967845593, -1, -1], [1449.9999999999309, 789.9999999999991, 1509.9999999999345, 1030.0000000000082, 122.25734726628585, -1, -1], [1489.99999999998, 1500.0000000000146, 1469.9999999998854, 1300.0000000000182, 145.6441445912519, -1, -1], [1629.9999999999382, 1710.0000000000218, 1669.9999999999873, 1560.0000000000164, 130.68154346231424, -1, -1], [1249.999999999971, 950.0000000000173, 960.0000000000073, 789.9999999999991, 194.47075373890277, -1, -1], [599.9999999999945, 1320.0000000000073, 559.9999999999454, 1360.00000000002, 43.89383651047547, -1, -1], [2289.9999999999636, 1860.0000000000273, 2249.9999999999145, 1870.0000000000036, 184.3207017653456, -1, -1], [3469.9999999999127, 1130.0000000000236, 3700.0000000000164, 1410.000000000011, 152.6388608093436, -1, -1], [2079.9999999999563, 1750.0, 1969.9999999999982, 1680.0000000000218, 129.05768584821234, -1, -1], [119.99999999997635, 1979.9999999999964, 129.99999999988177, 2030.0000000000218, 73.73802387635071, -1, -1], [1699.999999999989, 2180.0000000000273, 1839.9999999999472, 2350.000000000022, 102.32636297647335, -1, -1], [1679.9999999998927, 1689.9999999999982, 1609.9999999999854, 1719.9999999999982, 158.4960116192841, -1, -1], [1979.9999999999054, 1790.0000000000127, 1929.999999999949, 1730.000000000011, 40.7688458439738, -1, -1], [1009.9999999999618, 1760.0000000000127, 1119.99999999992, 1659.9999999999964, 59.74359168493295, -1, -1]]</t>
-        </is>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>2</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[[1799.9999999998981, 1770.0000000000236, 1809.9999999999454, 1860.0000000000273, 59.913240148113836, -1, -1], [1969.9999999999982, 1820.0000000000146, 1919.9999999999018, 1860.0000000000273, 110.46356763186205, -1, -1], [2929.9999999998927, 1800.0000000000255, 2979.999999999989, 1790.0000000000127, 33.03574279141821, -1, -1], [2339.999999999918, 1360.00000000002, 2270.000000000011, 1250.000000000029, 140.2551930195363, -1, -1], [1110.0000000000146, 210.0000000000009, 999.9999999999145, -49.99999999999727, 92.95567213681014, -1, -1], [739.9999999999527, 119.99999999999727, 529.9999999999436, 240.00000000000182, 16.99464150708487, -1, -1], [1319.99999999988, 560.0000000000018, 1309.9999999999745, 530.0000000000009, 24.6487794765895, -1, -1], [2229.999999999962, 1950.000000000031, 2150.0000000000055, 1930.0000000000073, 121.2210341693145, -1, -1], [2109.9999999999563, 1710.0000000000218, 1969.9999999999982, 1970.00000000002, 102.79024924521549, -1, -1], [1759.999999999991, 2020.000000000011, 1819.9999999999927, 2110.0000000000146, 75.43954130452259, -1, -1], [1239.9999999999236, 680.0000000000073, 1179.9999999999218, 660.0000000000182, 31.155844406180687, -1, -1], [1789.9999999999927, 2310.000000000009, 1929.999999999949, 2420.000000000002, 85.35057636740606, -1, -1], [1699.999999999989, 1600.000000000029, 1479.9999999999327, 1670.000000000009, 188.3386590622624, -1, -1], [1649.9999999998927, 1960.0000000000073, 1719.9999999999418, 1900.0000000000055, 143.9195346202703, -1, -1], [2090.0000000000036, 1399.9999999999982, 1989.9999999999527, 1360.00000000002, 156.45372279306235, -1, -1], [2289.9999999999636, 1770.0000000000236, 2330.0000000000127, 1740.0000000000236, 99.00516671186156, -1, -1], [1119.99999999992, 950.0000000000173, 1050.000000000011, 910.0000000000036, 78.72144984774776, -1, -1], [1209.9999999999236, 640.0000000000291, 1239.9999999999236, 670.00000000003, 127.39458433982954, -1, -1], [2379.9999999999673, 1890.000000000029, 2249.9999999999145, 1750.0, 76.79533290126292, -1, -1], [1389.999999999929, 2410.0000000000255, 1379.9999999998818, 2470.0000000000273, 169.09299964427672, -1, -1], [1149.99999999992, 780.0000000000227, 979.9999999999618, 710.0000000000082, 108.84457786365769, -1, -1], [1179.9999999999218, 670.00000000003, 1230.0000000000182, 620.0000000000045, 198.86221146689158, -1, -1], [2259.999999999962, 1850.0000000000164, 2249.9999999999145, 1930.0000000000073, 104.83479348007, -1, -1], [1849.9999999999945, 1820.0000000000146, 1919.9999999999018, 1740.0000000000236, 18.080357921039656, -1, -1], [2510.00000000002, 1580.0000000000055, 2539.999999999878, 1570.000000000029, 51.03678498931006, -1, -1], [1719.9999999999418, 1450.0000000000236, 1689.9999999999418, 1520.0000000000036, 20.209287505635977, -1, -1], [1149.99999999992, 940.0000000000045, 1200.0000000000164, 930.0000000000282, 147.3815022600634, -1, -1], [1979.9999999999054, 2160.0000000000036, 2259.999999999962, 2280.000000000009, 16.743987738249942, -1, -1], [2019.9999999999527, 430.0000000000209, 1859.9999999999, 360.00000000000637, 194.9641766237112, -1, -1], [1529.9999999998872, 1960.0000000000073, 1479.9999999999327, 1870.0000000000036, 193.8457083340842, -1, -1], [2049.9999999999545, 2030.0000000000218, 2069.9999999999072, 2080.0000000000127, 123.38052964498229, -1, -1], [2249.9999999999145, 2009.9999999999982, 2079.9999999999563, 2080.0000000000127, 193.36023130970798, -1, -1], [1569.9999999999363, 1630.000000000031, 1489.99999999998, 1650.00000000002, 137.32584074200355, -1, -1], [2019.9999999999527, 1580.0000000000055, 1959.999999999951, 1650.00000000002, 16.401656635193106, -1, -1], [1399.9999999999782, 1300.0000000000182, 1589.999999999889, 1310.000000000031, 170.19407886908618, -1, -1], [1519.9999999999818, 1700.000000000009, 1429.9999999999782, 1740.0000000000236, 48.19805915833639, -1, -1], [1859.9999999999, 1079.9999999999982, 1639.9999999999854, 980.0000000000182, 170.20016518585876, -1, -1], [750.0, 1830.0000000000273, 1009.9999999999618, 1880.0000000000164, 187.99942106412578, -1, -1], [1059.9999999999163, 1120.0000000000118, 1129.9999999999673, 1060.000000000009, 180.6851855410957, -1, -1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[[1669.9999999999873, 1090.000000000011, 1689.9999999999418, 1190.0000000000264, 79.44799537175031, -1, -1], [1569.9999999999363, 2030.0000000000218, 1559.999999999889, 2060.0000000000236, 182.016833611529, -1, -1], [699.9999999999036, 2180.0000000000273, 769.9999999999527, 2200.0000000000164, 87.62578983058044, -1, -1], [789.9999999999072, 520.0000000000246, 859.9999999999563, 630.0000000000164, 124.4805096222233, -1, -1], [1559.999999999889, 1079.9999999999982, 1489.99999999998, 1049.9999999999973, 97.59330445442211, -1, -1], [1899.999999999949, 1490.0000000000018, 1959.999999999951, 1510.0000000000273, 42.40302610276152, -1, -1], [669.9999999999018, 1710.0000000000218, 659.9999999999964, 1620.0000000000182, 86.25210017067056, -1, -1], [1729.999999999989, 1120.0000000000118, 1799.9999999998981, 1160.0000000000255, 106.81090862784399, -1, -1], [1200.0000000000164, 1210.0000000000146, 1219.999999999971, 1260.0000000000055, 181.85920732928815, -1, -1], [1669.9999999999873, 1570.000000000029, 1449.9999999999309, 1520.0000000000036, 132.10194154899645, -1, -1], [689.9999999999982, 1340.0000000000327, 750.0, 1369.9999999999982, 55.53448684247786, -1, -1], [1579.9999999999836, 2160.0000000000036, 1379.9999999998818, 2070.0, 75.76990090247513, -1, -1], [1179.9999999999218, 960.0000000000291, 1239.9999999999236, 1010.0000000000191, 111.87482476831816, -1, -1], [1839.9999999999472, 610.0000000000282, 1779.9999999999436, 550.0000000000255, 191.960825308917, -1, -1], [1439.9999999998836, 1070.0000000000218, 1319.99999999988, 1290.0000000000055, 105.67263132150929, -1, -1], [1489.99999999998, 1490.0000000000018, 1509.9999999999345, 1510.0000000000273, 115.81652465616862, -1, -1], [1429.9999999999782, 1320.0000000000073, 1449.9999999999309, 1360.00000000002, 6.1616787724593, -1, -1], [1110.0000000000146, 1840.0000000000036, 1129.9999999999673, 1910.0000000000182, 194.61829603556922, -1, -1], [1399.9999999999782, 729.9999999999973, 1419.9999999999309, 780.0000000000227, 48.44783818026237, -1, -1], [1349.99999999988, 2140.0000000000146, 1369.9999999999764, 2180.0000000000273, 52.079357514688084, -1, -1], [1349.99999999988, 1240.0000000000164, 1309.9999999999745, 1270.0000000000182, 34.57045001504064, -1, -1], [1809.9999999999454, 2310.000000000009, 1689.9999999999418, 2400.0000000000127, 29.68208870640312, -1, -1], [1749.9999999999436, 1180.0000000000136, 1799.9999999998981, 1170.0000000000018, 40.08944969359889, -1, -1], [1080.0000000000127, 1450.0000000000236, 979.9999999999618, 1500.0000000000146, 62.22713080903601, -1, -1], [1669.9999999999873, 1369.9999999999982, 1689.9999999999418, 1290.0000000000055, 151.48393251133297, -1, -1], [1559.999999999889, 1670.000000000009, 1649.9999999998927, 1710.0000000000218, 166.47098613310925, -1, -1], [259.9999999999345, 1689.9999999999982, 559.9999999999454, 1520.0000000000036, 89.27930413349078, -1, -1], [2030.0000000000018, 2050.000000000011, 1979.9999999999054, 2080.0000000000127, 172.24822015859874, -1, -1], [1869.9999999999472, 1280.000000000029, 1799.9999999998981, 1310.000000000031, 171.0178464257957, -1, -1], [1419.9999999999309, 740.0000000000091, 1409.9999999998836, 780.0000000000227, 33.59591297116429, -1, -1], [1589.999999999889, 1450.0000000000236, 1469.9999999998854, 1470.0000000000127, 71.39108552159261, -1, -1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[[1749.9999999999436, 1090.000000000011, 1669.9999999999873, 1030.0000000000082, 83.99330803110851, -1, -1], [29.999999999972715, 1010.0000000000191, 49.99999999992633, 950.0000000000173, 24.360002233188418, -1, -1], [1539.9999999999345, 1320.0000000000073, 1449.9999999999309, 1350.000000000009, 41.78904528997036, -1, -1], [1489.99999999998, 900.0000000000273, 1419.9999999999309, 1270.0000000000182, 175.78598019965943, -1, -1], [990.0000000000091, 710.0000000000082, 999.9999999999145, 640.0000000000291, 40.9643475473634, -1, -1], [239.99999999998, 1200.0000000000036, 389.99999999998545, 1220.0000000000273, 162.11232261082412, -1, -1], [1339.9999999999745, 1240.0000000000164, 1389.999999999929, 1270.0000000000182, 180.80356092385813, -1, -1], [1409.9999999998836, 940.0000000000045, 1379.9999999998818, 920.0000000000164, 4.830128130423317, -1, -1], [1059.9999999999163, 1160.0000000000255, 949.99999999996, 1190.0000000000264, 113.86171541700547, -1, -1], [1679.9999999998927, 1100.0000000000227, 1719.9999999999418, 1020.0000000000318, 2.643198587428164, -1, -1], [1769.9999999998963, 2900.00000000002, 1739.9999999998945, 2969.999999999998, 59.28252185127931, -1, -1], [1539.9999999999345, 1440.0000000000127, 1469.9999999998854, 1500.0000000000146, 134.78278631130704, -1, -1], [559.9999999999454, 1010.0000000000191, 589.9999999999472, 900.0000000000273, 144.86315842497314, -1, -1], [1969.9999999999982, 1820.0000000000146, 1959.999999999951, 1810.0000000000018, 129.87685372917952, -1, -1], [819.9999999999072, 1310.000000000031, 859.9999999999563, 1140.000000000001, 15.036714822607443, -1, -1], [919.99999999996, 1030.0000000000082, 960.0000000000073, 1049.9999999999973, 74.74545325723034, -1, -1], [1269.9999999999254, 1490.0000000000018, 1289.9999999998781, 1540.0000000000273, 161.09577910788573, -1, -1], [119.99999999997635, 1960.0000000000073, 39.99999999987813, 1700.000000000009, 87.43383661364388, -1, -1], [1050.000000000011, 1380.000000000009, 1129.9999999999673, 1369.9999999999982, 135.45258247378283, -1, -1], [1739.9999999998945, 2040.0, 1769.9999999998963, 1990.000000000009, 151.7220400696903, -1, -1], [1260.00000000002, 930.0000000000282, 1179.9999999999218, 960.0000000000291, 64.7375673068236, -1, -1], [1509.9999999999345, 1270.0000000000182, 1429.9999999999782, 1340.0000000000327, 24.780156377426277, -1, -1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[[2049.9999999999545, 2030.0000000000218, 2069.9999999999072, 2080.0000000000127, 143.59352953665277, -1, -1], [1899.999999999949, 1109.999999999999, 1939.9999999999982, 1180.0000000000136, 70.04255101799843, -1, -1], [960.0000000000073, 1030.0000000000082, 930.0000000000073, 990.00000000003, 107.85906970411946, -1, -1], [1099.9999999999654, 1150.0000000000127, 1069.9999999999654, 1170.0000000000018, 67.87302908761397, -1, -1], [1719.9999999999418, 2140.0000000000146, 1749.9999999999436, 2180.0000000000273, 146.2267260006262, -1, -1], [1009.9999999999618, 500.0, 1039.9999999999636, 540.0000000000136, 114.28300811692942, -1, -1], [1799.9999999998981, 2050.000000000011, 1789.9999999999927, 1910.0000000000182, 22.619074058038336, -1, -1], [2109.9999999999563, 2100.000000000002, 2210.0000000000073, 2140.0000000000146, 183.56247153514354, -1, -1], [1649.9999999998927, 2040.0, 1679.9999999998927, 1990.000000000009, 76.47713006125994, -1, -1], [1149.99999999992, 780.0000000000227, 1119.99999999992, 850.0000000000018, 111.37771308999605, -1, -1], [1789.9999999999927, 1140.000000000001, 1339.9999999999745, 1200.0000000000036, 198.96616828087156, -1, -1], [1409.9999999998836, 1810.0000000000018, 1309.9999999999745, 1820.0000000000146, 127.10659146035341, -1, -1], [819.9999999999072, 1220.0000000000273, 849.999999999909, 1320.0000000000073, 144.4576216960891, -1, -1], [2369.99999999992, 840.0000000000246, 2300.000000000011, 920.0000000000164, 147.71297995659893, -1, -1], [1389.999999999929, 1140.000000000001, 1299.9999999999254, 1130.0000000000236, 145.67610846602946, -1, -1], [539.9999999999927, 1650.00000000002, 579.9999999998981, 1910.0000000000182, 39.77585432979187, -1, -1], [1669.9999999999873, 1060.000000000009, 1689.9999999999418, 1020.0000000000318, 184.66170796987558, -1, -1], [49.99999999992633, 950.0000000000173, 29.999999999972715, 1010.0000000000191, 120.16647731452208, -1, -1], [1959.999999999951, 2020.000000000011, 2090.0000000000036, 1900.0000000000055, 103.38249416495164, -1, -1], [649.9999999999491, 90.00000000003183, 729.9999999999054, 100.00000000000819, 187.4953146943906, -1, -1], [1179.9999999999218, 2810.0000000000164, 1219.999999999971, 2840.000000000018, 142.42581425248338, -1, -1], [2039.9999999999072, 2050.000000000011, 2069.9999999999072, 2090.0000000000255, 197.51717642744865, -1, -1], [1809.9999999999454, 2060.0000000000236, 1749.9999999999436, 1920.000000000031, 140.5783804808748, -1, -1], [1179.9999999999218, 1520.0000000000036, 1189.999999999969, 1460.0, 89.87762871389641, -1, -1], [1649.9999999998927, 2220.0000000000055, 1749.9999999999436, 2190.0000000000055, 133.76808394634153, -1, -1], [1839.9999999999472, 2080.0000000000127, 1469.9999999998854, 1790.0000000000127, 39.47222435388271, -1, -1], [1089.9999999999181, 1049.9999999999973, 1110.0000000000146, 960.0000000000291, 105.23813963460809, -1, -1], [239.99999999998, 1399.9999999999982, 209.99999999998, 1369.9999999999982, 135.70963500315344, -1, -1], [1989.9999999999527, 2080.0000000000127, 1979.9999999999054, 2120.0000000000255, 115.86923960725883, -1, -1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[[1759.999999999991, 1890.000000000029, 1809.9999999999454, 1900.0000000000055, 194.0625286180557, -1, -1], [2199.99999999996, 1630.000000000031, 2139.999999999958, 1640.0000000000073, 67.20204034633235, -1, -1], [2259.999999999962, 1890.000000000029, 2180.0000000000073, 1870.0000000000036, 124.32496634785535, -1, -1], [1589.999999999889, 2000.0000000000218, 1539.9999999999345, 1920.000000000031, 194.89724596415576, -1, -1], [1140.0000000000146, 2920.000000000009, 1099.9999999999654, 2900.00000000002, 139.9007497696715, -1, -1], [2039.9999999999072, 1170.0000000000018, 2139.999999999958, 1230.0000000000036, 193.49900148626188, -1, -1], [1399.9999999999782, 1330.00000000002, 1359.999999999929, 1220.0000000000273, 13.54914530024236, -1, -1], [1729.999999999989, 1079.9999999999982, 1699.999999999989, 1100.0000000000227, 197.52669445539763, -1, -1], [1349.99999999988, 1240.0000000000164, 1309.9999999999745, 1290.0000000000055, 49.52627515845804, -1, -1], [1170.0000000000164, 540.0000000000136, 1080.0000000000127, 580.0000000000264, 193.4008757006309, -1, -1], [1029.9999999999163, 2020.000000000011, 1009.9999999999618, 1990.000000000009, 58.17720089804435, -1, -1], [1959.999999999951, 1170.0000000000018, 1969.9999999999982, 1130.0000000000236, 4.155263911186102, -1, -1], [1629.9999999999382, 980.0000000000182, 1709.9999999998945, 1030.0000000000082, 144.25686691591446, -1, -1], [1359.999999999929, 1290.0000000000055, 1479.9999999999327, 1280.000000000029, 31.216999342638996, -1, -1], [729.9999999999054, 110.00000000002092, 709.9999999999509, 140.00000000002183, 155.77145507502252, -1, -1], [1050.000000000011, 710.0000000000082, 1089.9999999999181, 750.0000000000209, 79.4635054207946, -1, -1], [1140.0000000000146, 1700.000000000009, 1309.9999999999745, 1820.0000000000146, 54.051740238469925, -1, -1]]</t>
-        </is>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>1</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>2</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>1</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>